--- a/ТЗ.xlsx
+++ b/ТЗ.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e8de5e6e04a93b7d/Рабочий стол/Работы/7 семестр/МПС/Курсовая/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e8de5e6e04a93b7d/Рабочий стол/Работы/7 семестр/МПС/MPS_Course_Work/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="8_{AE223CD1-AFB2-45CC-9FFC-597FEED66636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BFB9D0D0-B2E7-4DB2-861B-542E25E46647}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="8_{AE223CD1-AFB2-45CC-9FFC-597FEED66636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A97C5DEE-FC43-4DF6-A8B7-CF0F72AA62DF}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="225" windowWidth="28800" windowHeight="15435" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Функциональные требования" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="127">
   <si>
     <t>Техническое задание для адаптера J2534</t>
   </si>
@@ -405,6 +405,24 @@
   </si>
   <si>
     <t>ILO(RMS)</t>
+  </si>
+  <si>
+    <t>Altium Academy Youtube Channel</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/@AltiumAcademy</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/@EEVblog</t>
+  </si>
+  <si>
+    <t>EEVblog Youtube Channel</t>
+  </si>
+  <si>
+    <t>Altium Education</t>
+  </si>
+  <si>
+    <t>https://education.altium.com/</t>
   </si>
 </sst>
 </file>
@@ -833,6 +851,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -952,42 +991,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="11" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -1331,13 +1349,13 @@
   <sheetData>
     <row r="1" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -1350,361 +1368,361 @@
       <c r="P2" s="4"/>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="24" t="s">
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="24" t="s">
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
-      <c r="P3" s="26"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="37"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>1</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="17"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="28"/>
       <c r="G4" s="1">
         <v>1</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="H4" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="17"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="28"/>
       <c r="L4" s="1">
         <v>1</v>
       </c>
-      <c r="M4" s="18" t="s">
+      <c r="M4" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="19"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="30"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>2</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="17"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="28"/>
       <c r="G5" s="1">
         <v>2</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="H5" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="31">
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="42">
         <v>2</v>
       </c>
-      <c r="M5" s="29" t="s">
+      <c r="M5" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="N5" s="29"/>
-      <c r="O5" s="29"/>
-      <c r="P5" s="30"/>
+      <c r="N5" s="40"/>
+      <c r="O5" s="40"/>
+      <c r="P5" s="41"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="17"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="28"/>
       <c r="G6" s="1">
         <v>3</v>
       </c>
-      <c r="H6" s="16" t="s">
+      <c r="H6" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="29"/>
-      <c r="O6" s="29"/>
-      <c r="P6" s="30"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="40"/>
+      <c r="P6" s="41"/>
     </row>
     <row r="7" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="15">
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="26">
         <v>4</v>
       </c>
-      <c r="H7" s="34" t="s">
+      <c r="H7" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="35"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="46"/>
       <c r="L7" s="1">
         <v>3</v>
       </c>
-      <c r="M7" s="16" t="s">
+      <c r="M7" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="17"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="28"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="31">
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="42">
         <v>4</v>
       </c>
-      <c r="M8" s="32" t="s">
+      <c r="M8" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="N8" s="32"/>
-      <c r="O8" s="32"/>
-      <c r="P8" s="33"/>
+      <c r="N8" s="43"/>
+      <c r="O8" s="43"/>
+      <c r="P8" s="44"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="17"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="28"/>
       <c r="G9" s="1">
         <v>5</v>
       </c>
-      <c r="H9" s="16" t="s">
+      <c r="H9" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="32"/>
-      <c r="N9" s="32"/>
-      <c r="O9" s="32"/>
-      <c r="P9" s="33"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="43"/>
+      <c r="N9" s="43"/>
+      <c r="O9" s="43"/>
+      <c r="P9" s="44"/>
     </row>
     <row r="10" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="17"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="28"/>
       <c r="G10" s="1">
         <v>6</v>
       </c>
-      <c r="H10" s="16" t="s">
+      <c r="H10" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="31">
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="42">
         <v>5</v>
       </c>
-      <c r="M10" s="32" t="s">
+      <c r="M10" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="N10" s="32"/>
-      <c r="O10" s="32"/>
-      <c r="P10" s="33"/>
+      <c r="N10" s="43"/>
+      <c r="O10" s="43"/>
+      <c r="P10" s="44"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="17"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="28"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="32"/>
-      <c r="N11" s="32"/>
-      <c r="O11" s="32"/>
-      <c r="P11" s="33"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="43"/>
+      <c r="N11" s="43"/>
+      <c r="O11" s="43"/>
+      <c r="P11" s="44"/>
     </row>
     <row r="12" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="17"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="28"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="31">
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="42">
         <v>6</v>
       </c>
-      <c r="M12" s="29" t="s">
+      <c r="M12" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="N12" s="29"/>
-      <c r="O12" s="29"/>
-      <c r="P12" s="30"/>
+      <c r="N12" s="40"/>
+      <c r="O12" s="40"/>
+      <c r="P12" s="41"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="17"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="28"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="31"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="29"/>
-      <c r="O13" s="29"/>
-      <c r="P13" s="30"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="42"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="40"/>
+      <c r="O13" s="40"/>
+      <c r="P13" s="41"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="17"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="28"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="29"/>
-      <c r="O14" s="29"/>
-      <c r="P14" s="30"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="40"/>
+      <c r="O14" s="40"/>
+      <c r="P14" s="41"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="17"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="28"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="19"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="30"/>
       <c r="L15" s="1"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="17"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="27"/>
+      <c r="P15" s="28"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="17"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="28"/>
       <c r="G16" s="1"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="19"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="30"/>
       <c r="L16" s="1"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="16"/>
-      <c r="O16" s="16"/>
-      <c r="P16" s="17"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="27"/>
+      <c r="P16" s="28"/>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="17"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="28"/>
       <c r="G17" s="1"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="19"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="30"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="18"/>
-      <c r="O17" s="18"/>
-      <c r="P17" s="19"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="29"/>
+      <c r="P17" s="30"/>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="17"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="28"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="19"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="30"/>
       <c r="L18" s="1"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="18"/>
-      <c r="O18" s="18"/>
-      <c r="P18" s="19"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="29"/>
+      <c r="P18" s="30"/>
     </row>
     <row r="19" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="2"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="21"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="32"/>
       <c r="G19" s="2"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="23"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="34"/>
       <c r="L19" s="2"/>
-      <c r="M19" s="22"/>
-      <c r="N19" s="22"/>
-      <c r="O19" s="22"/>
-      <c r="P19" s="23"/>
+      <c r="M19" s="33"/>
+      <c r="N19" s="33"/>
+      <c r="O19" s="33"/>
+      <c r="P19" s="34"/>
     </row>
     <row r="20" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="26"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="37"/>
       <c r="H21" t="s">
         <v>20</v>
       </c>
@@ -1713,12 +1731,12 @@
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="27" t="s">
+      <c r="C22" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="28"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="39"/>
       <c r="H22" t="s">
         <v>22</v>
       </c>
@@ -1727,22 +1745,22 @@
       <c r="B23" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="19"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="30"/>
       <c r="H23" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="19"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="30"/>
       <c r="H24" t="s">
         <v>59</v>
       </c>
@@ -1752,45 +1770,45 @@
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="19"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="30"/>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="19"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="30"/>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="19"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="30"/>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="19"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="30"/>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="19"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="30"/>
     </row>
     <row r="30" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="2"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="23"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="61">
@@ -1864,8 +1882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A09C219B-0FC9-408A-A2E3-34F5CACED5E6}">
   <dimension ref="B2:F37"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2078,82 +2096,109 @@
         <v>44875</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>14</v>
       </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>121</v>
+      </c>
+      <c r="D17" t="s">
+        <v>122</v>
+      </c>
+      <c r="E17" s="7">
+        <v>44879</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>15</v>
       </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>124</v>
+      </c>
+      <c r="D18" t="s">
+        <v>123</v>
+      </c>
+      <c r="E18" s="7">
+        <v>44878</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>16</v>
       </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>125</v>
+      </c>
+      <c r="D19" t="s">
+        <v>126</v>
+      </c>
+      <c r="E19" s="7">
+        <v>44828</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>29</v>
       </c>
@@ -2211,230 +2256,230 @@
   <sheetData>
     <row r="1" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="41"/>
-      <c r="H2" s="39" t="s">
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="52"/>
+      <c r="H2" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="41"/>
-      <c r="N2" s="54" t="s">
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="52"/>
+      <c r="N2" s="65" t="s">
         <v>52</v>
       </c>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="55"/>
-      <c r="R2" s="56"/>
+      <c r="O2" s="66"/>
+      <c r="P2" s="66"/>
+      <c r="Q2" s="66"/>
+      <c r="R2" s="67"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B3" s="38">
+      <c r="B3" s="49">
         <v>1</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="37"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="48"/>
       <c r="H3" s="10">
         <v>1</v>
       </c>
-      <c r="I3" s="44" t="s">
+      <c r="I3" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="45"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="56"/>
       <c r="N3" s="10">
         <v>1</v>
       </c>
-      <c r="O3" s="57" t="s">
+      <c r="O3" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="P3" s="58"/>
-      <c r="Q3" s="58"/>
-      <c r="R3" s="59"/>
+      <c r="P3" s="69"/>
+      <c r="Q3" s="69"/>
+      <c r="R3" s="70"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B4" s="38"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="37"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="48"/>
       <c r="H4" s="10">
         <v>2</v>
       </c>
-      <c r="I4" s="44" t="s">
+      <c r="I4" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="45"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="56"/>
       <c r="N4" s="10">
         <v>2</v>
       </c>
-      <c r="O4" s="57" t="s">
+      <c r="O4" s="68" t="s">
         <v>54</v>
       </c>
-      <c r="P4" s="58"/>
-      <c r="Q4" s="58"/>
-      <c r="R4" s="59"/>
+      <c r="P4" s="69"/>
+      <c r="Q4" s="69"/>
+      <c r="R4" s="70"/>
     </row>
     <row r="5" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="9">
         <v>2</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="43"/>
-      <c r="H5" s="50">
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="54"/>
+      <c r="H5" s="61">
         <v>3</v>
       </c>
-      <c r="I5" s="46" t="s">
+      <c r="I5" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="47"/>
+      <c r="J5" s="57"/>
+      <c r="K5" s="57"/>
+      <c r="L5" s="58"/>
       <c r="N5" s="10">
         <v>3</v>
       </c>
-      <c r="O5" s="57" t="s">
+      <c r="O5" s="68" t="s">
         <v>55</v>
       </c>
-      <c r="P5" s="58"/>
-      <c r="Q5" s="58"/>
-      <c r="R5" s="59"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="69"/>
+      <c r="R5" s="70"/>
     </row>
     <row r="6" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H6" s="51"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="49"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="59"/>
+      <c r="J6" s="59"/>
+      <c r="K6" s="59"/>
+      <c r="L6" s="60"/>
       <c r="N6" s="10">
         <v>4</v>
       </c>
-      <c r="O6" s="57" t="s">
+      <c r="O6" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="P6" s="58"/>
-      <c r="Q6" s="58"/>
-      <c r="R6" s="59"/>
+      <c r="P6" s="69"/>
+      <c r="Q6" s="69"/>
+      <c r="R6" s="70"/>
     </row>
     <row r="7" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="N7" s="10">
         <v>5</v>
       </c>
-      <c r="O7" s="57" t="s">
+      <c r="O7" s="68" t="s">
         <v>57</v>
       </c>
-      <c r="P7" s="58"/>
-      <c r="Q7" s="58"/>
-      <c r="R7" s="59"/>
+      <c r="P7" s="69"/>
+      <c r="Q7" s="69"/>
+      <c r="R7" s="70"/>
     </row>
     <row r="8" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="54" t="s">
+      <c r="B8" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="55"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="56"/>
-      <c r="H8" s="54" t="s">
+      <c r="C8" s="66"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="67"/>
+      <c r="H8" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="I8" s="55"/>
-      <c r="J8" s="55"/>
-      <c r="K8" s="55"/>
-      <c r="L8" s="56"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="66"/>
+      <c r="K8" s="66"/>
+      <c r="L8" s="67"/>
       <c r="N8" s="9">
         <v>6</v>
       </c>
-      <c r="O8" s="60" t="s">
+      <c r="O8" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="P8" s="61"/>
-      <c r="Q8" s="61"/>
-      <c r="R8" s="62"/>
+      <c r="P8" s="72"/>
+      <c r="Q8" s="72"/>
+      <c r="R8" s="73"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" s="10">
         <v>1</v>
       </c>
-      <c r="C9" s="57" t="s">
+      <c r="C9" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="59"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="70"/>
       <c r="H9" s="10">
         <v>1</v>
       </c>
-      <c r="I9" s="57" t="s">
+      <c r="I9" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="J9" s="58"/>
-      <c r="K9" s="58"/>
-      <c r="L9" s="59"/>
+      <c r="J9" s="69"/>
+      <c r="K9" s="69"/>
+      <c r="L9" s="70"/>
     </row>
     <row r="10" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="10">
         <v>2</v>
       </c>
-      <c r="C10" s="57" t="s">
+      <c r="C10" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="58"/>
-      <c r="E10" s="58"/>
-      <c r="F10" s="59"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="70"/>
       <c r="H10" s="9">
         <v>2</v>
       </c>
-      <c r="I10" s="60" t="s">
+      <c r="I10" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="J10" s="61"/>
-      <c r="K10" s="61"/>
-      <c r="L10" s="62"/>
+      <c r="J10" s="72"/>
+      <c r="K10" s="72"/>
+      <c r="L10" s="73"/>
     </row>
     <row r="11" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="13">
         <v>3</v>
       </c>
-      <c r="C11" s="52" t="s">
+      <c r="C11" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="53"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="64"/>
     </row>
     <row r="12" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B13" s="39" t="s">
+      <c r="B13" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="41"/>
-      <c r="H13" s="39" t="s">
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="52"/>
+      <c r="H13" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="I13" s="40"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="40"/>
-      <c r="L13" s="41"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="51"/>
+      <c r="L13" s="52"/>
     </row>
     <row r="14" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="9">
@@ -2449,34 +2494,34 @@
       <c r="H14" s="10">
         <v>1</v>
       </c>
-      <c r="I14" s="57" t="s">
+      <c r="I14" s="68" t="s">
         <v>48</v>
       </c>
-      <c r="J14" s="58"/>
-      <c r="K14" s="58"/>
-      <c r="L14" s="59"/>
+      <c r="J14" s="69"/>
+      <c r="K14" s="69"/>
+      <c r="L14" s="70"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="H15" s="10">
         <v>2</v>
       </c>
-      <c r="I15" s="57" t="s">
+      <c r="I15" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="J15" s="58"/>
-      <c r="K15" s="58"/>
-      <c r="L15" s="59"/>
+      <c r="J15" s="69"/>
+      <c r="K15" s="69"/>
+      <c r="L15" s="70"/>
     </row>
     <row r="16" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H16" s="9">
         <v>3</v>
       </c>
-      <c r="I16" s="60" t="s">
+      <c r="I16" s="71" t="s">
         <v>50</v>
       </c>
-      <c r="J16" s="61"/>
-      <c r="K16" s="61"/>
-      <c r="L16" s="62"/>
+      <c r="J16" s="72"/>
+      <c r="K16" s="72"/>
+      <c r="L16" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="28">
@@ -2528,13 +2573,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="74" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
@@ -2817,26 +2862,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="74" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="74" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="F2" s="63" t="s">
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="F2" s="74" t="s">
         <v>95</v>
       </c>
-      <c r="G2" s="63"/>
+      <c r="G2" s="74"/>
       <c r="H2" t="s">
         <v>97</v>
       </c>
@@ -2967,7 +3012,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83DB2240-1AAB-466B-BC64-B9699C7A01B4}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -2989,40 +3034,40 @@
       <c r="A3" t="s">
         <v>115</v>
       </c>
-      <c r="B3" s="78">
+      <c r="B3" s="24">
         <f>(D3/D4)*(F3-H3)/(F4*H4)</f>
         <v>1.7959770114942528</v>
       </c>
-      <c r="D3" s="67">
+      <c r="D3" s="15">
         <v>5</v>
       </c>
-      <c r="E3" s="64" t="s">
+      <c r="E3" s="77" t="s">
         <v>116</v>
       </c>
-      <c r="F3" s="70">
+      <c r="F3" s="18">
         <f>D4</f>
         <v>16</v>
       </c>
-      <c r="G3" s="71" t="s">
+      <c r="G3" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="H3" s="70">
+      <c r="H3" s="18">
         <f>D3</f>
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D4" s="68">
+      <c r="D4" s="16">
         <v>16</v>
       </c>
-      <c r="E4" s="64"/>
-      <c r="F4" s="69">
+      <c r="E4" s="77"/>
+      <c r="F4" s="17">
         <v>3.3000000000000002E-6</v>
       </c>
       <c r="G4" t="s">
         <v>116</v>
       </c>
-      <c r="H4" s="72">
+      <c r="H4" s="20">
         <v>580000</v>
       </c>
     </row>
@@ -3030,25 +3075,25 @@
       <c r="A6" t="s">
         <v>118</v>
       </c>
-      <c r="B6" s="78">
+      <c r="B6" s="24">
         <f>D6+F6/F7</f>
         <v>1.6479885057471264</v>
       </c>
-      <c r="D6" s="66">
+      <c r="D6" s="78">
         <v>0.75</v>
       </c>
-      <c r="E6" s="65" t="s">
+      <c r="E6" s="79" t="s">
         <v>119</v>
       </c>
-      <c r="F6" s="76">
+      <c r="F6" s="22">
         <f>B3</f>
         <v>1.7959770114942528</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D7" s="66"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="77">
+      <c r="D7" s="78"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="23">
         <v>2</v>
       </c>
     </row>
@@ -3056,34 +3101,34 @@
       <c r="A9" t="s">
         <v>120</v>
       </c>
-      <c r="B9" s="79">
+      <c r="B9" s="25">
         <f>SQRT(D9+F9/F10*G9)</f>
         <v>0.91175350405211986</v>
       </c>
-      <c r="D9" s="74">
+      <c r="D9" s="76">
         <f>D6^2</f>
         <v>0.5625</v>
       </c>
-      <c r="E9" s="65" t="s">
+      <c r="E9" s="79" t="s">
         <v>119</v>
       </c>
-      <c r="F9" s="75">
+      <c r="F9" s="21">
         <v>1</v>
       </c>
-      <c r="G9" s="73">
+      <c r="G9" s="75">
         <f>B3^2</f>
         <v>3.2255334258158275</v>
       </c>
-      <c r="H9" s="74"/>
+      <c r="H9" s="76"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D10" s="74"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="75">
+      <c r="D10" s="76"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="21">
         <v>12</v>
       </c>
-      <c r="G10" s="74"/>
-      <c r="H10" s="74"/>
+      <c r="G10" s="76"/>
+      <c r="H10" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/ТЗ.xlsx
+++ b/ТЗ.xlsx
@@ -8,17 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e8de5e6e04a93b7d/Рабочий стол/Работы/7 семестр/МПС/MPS_Course_Work/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="8_{AE223CD1-AFB2-45CC-9FFC-597FEED66636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A97C5DEE-FC43-4DF6-A8B7-CF0F72AA62DF}"/>
+  <xr:revisionPtr revIDLastSave="124" documentId="8_{AE223CD1-AFB2-45CC-9FFC-597FEED66636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A603CC61-E8A9-4C67-AC43-937FDD713DE1}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="225" windowWidth="28800" windowHeight="15435" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20940" windowHeight="12180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Функциональные требования" sheetId="1" r:id="rId1"/>
     <sheet name="Использованные источники" sheetId="2" r:id="rId2"/>
-    <sheet name="Функциональные блоки" sheetId="3" r:id="rId3"/>
-    <sheet name="Компоненты" sheetId="4" r:id="rId4"/>
-    <sheet name="Кварц" sheetId="5" r:id="rId5"/>
-    <sheet name="DC-DC" sheetId="6" r:id="rId6"/>
+    <sheet name="VCP Protocol" sheetId="8" r:id="rId3"/>
+    <sheet name="Функциональные блоки" sheetId="3" r:id="rId4"/>
+    <sheet name="Компоненты" sheetId="4" r:id="rId5"/>
+    <sheet name="Кварц" sheetId="5" r:id="rId6"/>
+    <sheet name="DC-DC" sheetId="6" r:id="rId7"/>
+    <sheet name="Функциональные объекты" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="194">
   <si>
     <t>Техническое задание для адаптера J2534</t>
   </si>
@@ -423,13 +425,501 @@
   </si>
   <si>
     <t>https://education.altium.com/</t>
+  </si>
+  <si>
+    <t>USB-COM:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Установка скорости соединения </t>
+  </si>
+  <si>
+    <t>Взаимодействие с ПК</t>
+  </si>
+  <si>
+    <t>Communication Interface:</t>
+  </si>
+  <si>
+    <t>Обработка сигналов от COM</t>
+  </si>
+  <si>
+    <t>Вызов необходимых обработчиков от Control</t>
+  </si>
+  <si>
+    <t>Обратная связь к ПК</t>
+  </si>
+  <si>
+    <t>CAN_MCP2515:</t>
+  </si>
+  <si>
+    <t>Инициализация MCP2515</t>
+  </si>
+  <si>
+    <t>Настройка параметров CAN</t>
+  </si>
+  <si>
+    <t>Установка фильтров</t>
+  </si>
+  <si>
+    <t>Обработка прерываний (чтение/отправка сообщений)</t>
+  </si>
+  <si>
+    <t>Control:</t>
+  </si>
+  <si>
+    <t>Управление интерфейсами</t>
+  </si>
+  <si>
+    <t>Обработка команд от интерфейса взаимодействия</t>
+  </si>
+  <si>
+    <t>Service:</t>
+  </si>
+  <si>
+    <t>Первичная настройка МК и периферии</t>
+  </si>
+  <si>
+    <t>Входные сигналы</t>
+  </si>
+  <si>
+    <t>Выходные сигналы</t>
+  </si>
+  <si>
+    <t>https://wiki.stmicroelectronics.cn/stm32mcu/wiki/Introduction_to_USB_with_STM32</t>
+  </si>
+  <si>
+    <t>Introduction to USB with STM32</t>
+  </si>
+  <si>
+    <t>Команда</t>
+  </si>
+  <si>
+    <t>Входной синтаксис</t>
+  </si>
+  <si>
+    <t>Выходной синтаксис</t>
+  </si>
+  <si>
+    <t>PassThruConnect</t>
+  </si>
+  <si>
+    <t>Все числа в шестнадцатиричной системе</t>
+  </si>
+  <si>
+    <t>1 (ChannelID) 
+/
+NOT_SUPPORTED (Error Code)</t>
+  </si>
+  <si>
+    <t>PassThruDisconnect</t>
+  </si>
+  <si>
+    <t>OK (Error Code)</t>
+  </si>
+  <si>
+    <t>PassThruReadMsgs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">disconnect 1 (ChannelID) </t>
+  </si>
+  <si>
+    <t>PassThruWriteMsgs</t>
+  </si>
+  <si>
+    <t>Ограничения</t>
+  </si>
+  <si>
+    <t>Нет возможности отправить несколько сообщений за раз</t>
+  </si>
+  <si>
+    <t>PassThruStartPeriodicMsg</t>
+  </si>
+  <si>
+    <t>PassThruStopPeriodicMsg</t>
+  </si>
+  <si>
+    <t>3 (MsgID) 
+/
+ERROR (Error Code)</t>
+  </si>
+  <si>
+    <t>PassThruStartMsgFilter</t>
+  </si>
+  <si>
+    <t>5 (MsgID) 
+/
+ERROR (Error Code)</t>
+  </si>
+  <si>
+    <t>PassThruStopMsgFilter</t>
+  </si>
+  <si>
+    <t>PassThruSetProgrammingVoltage</t>
+  </si>
+  <si>
+    <t>PassThruReadVersion</t>
+  </si>
+  <si>
+    <t>readversion</t>
+  </si>
+  <si>
+    <t>PassThruGetLastError</t>
+  </si>
+  <si>
+    <t>getlasterror</t>
+  </si>
+  <si>
+    <t>Error String
+/
+ERROR (Error Code)</t>
+  </si>
+  <si>
+    <t>Firmware version string
+/
+ERROR (Error Code)</t>
+  </si>
+  <si>
+    <t>PassThruIoctl</t>
+  </si>
+  <si>
+    <t>Output structure
+/
+ERROR (Error Code)</t>
+  </si>
+  <si>
+    <t>ioctl 1,7,9032ad214f (ChannelID, IoctlID, Input)</t>
+  </si>
+  <si>
+    <t>setprogvoltage 6,20000 (PinNumber, Voltage)</t>
+  </si>
+  <si>
+    <t>stopmsgfilter 1,5 (ChannelID, MsgID)</t>
+  </si>
+  <si>
+    <t>startmsgfilter 1,0,21df432ab432,2123afc321,21ad3424 (ChannelID, FilterType, MaskMsg, PatternMsg, FlowControlMsg)</t>
+  </si>
+  <si>
+    <t>stopperiodicmsgs 1,3 (ChannelID, MsgID)</t>
+  </si>
+  <si>
+    <t>startperiodicmsgs 1,01A4C3D29D93F2A000C,100 (ChannelID, Msg, TimeInterval)</t>
+  </si>
+  <si>
+    <t>writemsgs 1,01A4C3D29D93F2A000C (ChannelID, Msg)</t>
+  </si>
+  <si>
+    <t>readmsgs 1,2,10 (ChannelID, NumMsgs, Timeout)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">connect 5,c001 (ProtocolID, Flags) </t>
+  </si>
+  <si>
+    <t>Сообщения протокола, разделенные '\r'
+/
+ERROR (Error Code)</t>
+  </si>
+  <si>
+    <t>PassThruIoctl (GET_CONFIG)</t>
+  </si>
+  <si>
+    <t>Список параметров, разделенные '\r'
+/
+ERROR (Error Code)</t>
+  </si>
+  <si>
+    <t>12.1</t>
+  </si>
+  <si>
+    <t>12.2</t>
+  </si>
+  <si>
+    <t>PassThruIoctl (SET_CONFIG)</t>
+  </si>
+  <si>
+    <t>OK (Error Code) (или список кодов ошибок)</t>
+  </si>
+  <si>
+    <r>
+      <t>ioctl 1,1,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2,3,5,6,9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>количество</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> и список запрашиваемых </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>параметров</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ioctl 1,2,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>500</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,3,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>200</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,5,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>600</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,6,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,9,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (количество пар, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>параметров</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> и </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>значений</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -445,8 +935,46 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -471,8 +999,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="29">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -828,12 +1362,96 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -872,6 +1490,55 @@
     </xf>
     <xf numFmtId="11" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1005,6 +1672,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1349,13 +2022,13 @@
   <sheetData>
     <row r="1" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -1368,361 +2041,361 @@
       <c r="P2" s="4"/>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="35" t="s">
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="35" t="s">
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="36"/>
-      <c r="P3" s="37"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="55"/>
+      <c r="P3" s="56"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>1</v>
       </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="28"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="47"/>
       <c r="G4" s="1">
         <v>1</v>
       </c>
-      <c r="H4" s="27" t="s">
+      <c r="H4" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="28"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="47"/>
       <c r="L4" s="1">
         <v>1</v>
       </c>
-      <c r="M4" s="29" t="s">
+      <c r="M4" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
-      <c r="P4" s="30"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="48"/>
+      <c r="P4" s="49"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>2</v>
       </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="28"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="47"/>
       <c r="G5" s="1">
         <v>2</v>
       </c>
-      <c r="H5" s="27" t="s">
+      <c r="H5" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="42">
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="61">
         <v>2</v>
       </c>
-      <c r="M5" s="40" t="s">
+      <c r="M5" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="N5" s="40"/>
-      <c r="O5" s="40"/>
-      <c r="P5" s="41"/>
+      <c r="N5" s="59"/>
+      <c r="O5" s="59"/>
+      <c r="P5" s="60"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="28"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="47"/>
       <c r="G6" s="1">
         <v>3</v>
       </c>
-      <c r="H6" s="27" t="s">
+      <c r="H6" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="42"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="40"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="41"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="61"/>
+      <c r="M6" s="59"/>
+      <c r="N6" s="59"/>
+      <c r="O6" s="59"/>
+      <c r="P6" s="60"/>
     </row>
     <row r="7" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="26">
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="45">
         <v>4</v>
       </c>
-      <c r="H7" s="45" t="s">
+      <c r="H7" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="46"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="64"/>
+      <c r="K7" s="65"/>
       <c r="L7" s="1">
         <v>3</v>
       </c>
-      <c r="M7" s="27" t="s">
+      <c r="M7" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="N7" s="27"/>
-      <c r="O7" s="27"/>
-      <c r="P7" s="28"/>
+      <c r="N7" s="46"/>
+      <c r="O7" s="46"/>
+      <c r="P7" s="47"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="42">
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="64"/>
+      <c r="J8" s="64"/>
+      <c r="K8" s="65"/>
+      <c r="L8" s="61">
         <v>4</v>
       </c>
-      <c r="M8" s="43" t="s">
+      <c r="M8" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="N8" s="43"/>
-      <c r="O8" s="43"/>
-      <c r="P8" s="44"/>
+      <c r="N8" s="62"/>
+      <c r="O8" s="62"/>
+      <c r="P8" s="63"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="28"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="47"/>
       <c r="G9" s="1">
         <v>5</v>
       </c>
-      <c r="H9" s="27" t="s">
+      <c r="H9" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="42"/>
-      <c r="M9" s="43"/>
-      <c r="N9" s="43"/>
-      <c r="O9" s="43"/>
-      <c r="P9" s="44"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="61"/>
+      <c r="M9" s="62"/>
+      <c r="N9" s="62"/>
+      <c r="O9" s="62"/>
+      <c r="P9" s="63"/>
     </row>
     <row r="10" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="28"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="47"/>
       <c r="G10" s="1">
         <v>6</v>
       </c>
-      <c r="H10" s="27" t="s">
+      <c r="H10" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="42">
+      <c r="I10" s="46"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="47"/>
+      <c r="L10" s="61">
         <v>5</v>
       </c>
-      <c r="M10" s="43" t="s">
+      <c r="M10" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="N10" s="43"/>
-      <c r="O10" s="43"/>
-      <c r="P10" s="44"/>
+      <c r="N10" s="62"/>
+      <c r="O10" s="62"/>
+      <c r="P10" s="63"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="28"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="47"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="42"/>
-      <c r="M11" s="43"/>
-      <c r="N11" s="43"/>
-      <c r="O11" s="43"/>
-      <c r="P11" s="44"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="47"/>
+      <c r="L11" s="61"/>
+      <c r="M11" s="62"/>
+      <c r="N11" s="62"/>
+      <c r="O11" s="62"/>
+      <c r="P11" s="63"/>
     </row>
     <row r="12" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="28"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="47"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="42">
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="47"/>
+      <c r="L12" s="61">
         <v>6</v>
       </c>
-      <c r="M12" s="40" t="s">
+      <c r="M12" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="N12" s="40"/>
-      <c r="O12" s="40"/>
-      <c r="P12" s="41"/>
+      <c r="N12" s="59"/>
+      <c r="O12" s="59"/>
+      <c r="P12" s="60"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="28"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="47"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="42"/>
-      <c r="M13" s="40"/>
-      <c r="N13" s="40"/>
-      <c r="O13" s="40"/>
-      <c r="P13" s="41"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="61"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="59"/>
+      <c r="O13" s="59"/>
+      <c r="P13" s="60"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="28"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="47"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="42"/>
-      <c r="M14" s="40"/>
-      <c r="N14" s="40"/>
-      <c r="O14" s="40"/>
-      <c r="P14" s="41"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="47"/>
+      <c r="L14" s="61"/>
+      <c r="M14" s="59"/>
+      <c r="N14" s="59"/>
+      <c r="O14" s="59"/>
+      <c r="P14" s="60"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="28"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="47"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="30"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="49"/>
       <c r="L15" s="1"/>
-      <c r="M15" s="27"/>
-      <c r="N15" s="27"/>
-      <c r="O15" s="27"/>
-      <c r="P15" s="28"/>
+      <c r="M15" s="46"/>
+      <c r="N15" s="46"/>
+      <c r="O15" s="46"/>
+      <c r="P15" s="47"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="28"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="47"/>
       <c r="G16" s="1"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="30"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="49"/>
       <c r="L16" s="1"/>
-      <c r="M16" s="27"/>
-      <c r="N16" s="27"/>
-      <c r="O16" s="27"/>
-      <c r="P16" s="28"/>
+      <c r="M16" s="46"/>
+      <c r="N16" s="46"/>
+      <c r="O16" s="46"/>
+      <c r="P16" s="47"/>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="28"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="47"/>
       <c r="G17" s="1"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="30"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="48"/>
+      <c r="J17" s="48"/>
+      <c r="K17" s="49"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="29"/>
-      <c r="N17" s="29"/>
-      <c r="O17" s="29"/>
-      <c r="P17" s="30"/>
+      <c r="M17" s="48"/>
+      <c r="N17" s="48"/>
+      <c r="O17" s="48"/>
+      <c r="P17" s="49"/>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="28"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="47"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="30"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="48"/>
+      <c r="K18" s="49"/>
       <c r="L18" s="1"/>
-      <c r="M18" s="29"/>
-      <c r="N18" s="29"/>
-      <c r="O18" s="29"/>
-      <c r="P18" s="30"/>
+      <c r="M18" s="48"/>
+      <c r="N18" s="48"/>
+      <c r="O18" s="48"/>
+      <c r="P18" s="49"/>
     </row>
     <row r="19" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="2"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="32"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="51"/>
       <c r="G19" s="2"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="34"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="53"/>
       <c r="L19" s="2"/>
-      <c r="M19" s="33"/>
-      <c r="N19" s="33"/>
-      <c r="O19" s="33"/>
-      <c r="P19" s="34"/>
+      <c r="M19" s="52"/>
+      <c r="N19" s="52"/>
+      <c r="O19" s="52"/>
+      <c r="P19" s="53"/>
     </row>
     <row r="20" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="35" t="s">
+      <c r="B21" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="37"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="56"/>
       <c r="H21" t="s">
         <v>20</v>
       </c>
@@ -1731,12 +2404,12 @@
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="38" t="s">
+      <c r="C22" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="39"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="58"/>
       <c r="H22" t="s">
         <v>22</v>
       </c>
@@ -1745,22 +2418,22 @@
       <c r="B23" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="29" t="s">
+      <c r="C23" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="30"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="49"/>
       <c r="H23" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="30"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="49"/>
       <c r="H24" t="s">
         <v>59</v>
       </c>
@@ -1770,45 +2443,45 @@
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="30"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="49"/>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="30"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="49"/>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="30"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="49"/>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="30"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="49"/>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="30"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="48"/>
+      <c r="F29" s="49"/>
     </row>
     <row r="30" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="2"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="34"/>
+      <c r="C30" s="52"/>
+      <c r="D30" s="52"/>
+      <c r="E30" s="52"/>
+      <c r="F30" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="61">
@@ -1883,7 +2556,7 @@
   <dimension ref="B2:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2141,6 +2814,15 @@
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>17</v>
+      </c>
+      <c r="C20" t="s">
+        <v>147</v>
+      </c>
+      <c r="D20" t="s">
+        <v>146</v>
+      </c>
+      <c r="E20" s="7">
+        <v>44914</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
@@ -2242,6 +2924,415 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1DBCC47-8DF6-4EAE-923D-653C13CC3D25}">
+  <dimension ref="A2:E57"/>
+  <sheetViews>
+    <sheetView topLeftCell="A34" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="3" max="3" width="72.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="44" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2" s="101" t="s">
+        <v>151</v>
+      </c>
+      <c r="E2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="44" t="s">
+        <v>149</v>
+      </c>
+      <c r="C3" s="44" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B4" s="44" t="s">
+        <v>150</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" s="44" t="s">
+        <v>148</v>
+      </c>
+      <c r="C6" s="101" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="44" t="s">
+        <v>149</v>
+      </c>
+      <c r="C7" s="44" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="44" t="s">
+        <v>150</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10" s="44" t="s">
+        <v>148</v>
+      </c>
+      <c r="C10" s="101" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="44" t="s">
+        <v>149</v>
+      </c>
+      <c r="C11" s="44" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B12" s="44" t="s">
+        <v>150</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14" s="44" t="s">
+        <v>148</v>
+      </c>
+      <c r="C14" s="101" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="44" t="s">
+        <v>149</v>
+      </c>
+      <c r="C15" s="44" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="44" t="s">
+        <v>150</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="100" t="s">
+        <v>159</v>
+      </c>
+      <c r="C17" s="99" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>5</v>
+      </c>
+      <c r="B19" s="44" t="s">
+        <v>148</v>
+      </c>
+      <c r="C19" s="44" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="44" t="s">
+        <v>149</v>
+      </c>
+      <c r="C20" s="44" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="B21" s="44" t="s">
+        <v>150</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>6</v>
+      </c>
+      <c r="B23" s="44" t="s">
+        <v>148</v>
+      </c>
+      <c r="C23" s="44" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="44" t="s">
+        <v>149</v>
+      </c>
+      <c r="C24" s="44" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B25" s="44" t="s">
+        <v>150</v>
+      </c>
+      <c r="C25" s="26" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>7</v>
+      </c>
+      <c r="B27" s="44" t="s">
+        <v>148</v>
+      </c>
+      <c r="C27" s="44" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B28" s="44" t="s">
+        <v>149</v>
+      </c>
+      <c r="C28" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="B29" s="44" t="s">
+        <v>150</v>
+      </c>
+      <c r="C29" s="26" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>8</v>
+      </c>
+      <c r="B31" s="44" t="s">
+        <v>148</v>
+      </c>
+      <c r="C31" s="44" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B32" s="44" t="s">
+        <v>149</v>
+      </c>
+      <c r="C32" s="26" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="44" t="s">
+        <v>150</v>
+      </c>
+      <c r="C33" s="26" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>9</v>
+      </c>
+      <c r="B35" s="44" t="s">
+        <v>148</v>
+      </c>
+      <c r="C35" s="44" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B36" s="44" t="s">
+        <v>149</v>
+      </c>
+      <c r="C36" s="44" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B37" s="44" t="s">
+        <v>150</v>
+      </c>
+      <c r="C37" s="26" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>10</v>
+      </c>
+      <c r="B39" s="44" t="s">
+        <v>148</v>
+      </c>
+      <c r="C39" s="44" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B40" s="44" t="s">
+        <v>149</v>
+      </c>
+      <c r="C40" s="44" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="B41" s="44" t="s">
+        <v>150</v>
+      </c>
+      <c r="C41" s="26" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>11</v>
+      </c>
+      <c r="B43" s="44" t="s">
+        <v>148</v>
+      </c>
+      <c r="C43" s="44" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B44" s="44" t="s">
+        <v>149</v>
+      </c>
+      <c r="C44" s="44" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="B45" s="44" t="s">
+        <v>150</v>
+      </c>
+      <c r="C45" s="26" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>12</v>
+      </c>
+      <c r="B47" s="44" t="s">
+        <v>148</v>
+      </c>
+      <c r="C47" s="44" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B48" s="44" t="s">
+        <v>149</v>
+      </c>
+      <c r="C48" s="44" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="B49" s="44" t="s">
+        <v>150</v>
+      </c>
+      <c r="C49" s="26" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="102" t="s">
+        <v>188</v>
+      </c>
+      <c r="B51" s="44" t="s">
+        <v>148</v>
+      </c>
+      <c r="C51" s="44" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B52" s="44" t="s">
+        <v>149</v>
+      </c>
+      <c r="C52" s="99" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="B53" s="44" t="s">
+        <v>150</v>
+      </c>
+      <c r="C53" s="26" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="102" t="s">
+        <v>189</v>
+      </c>
+      <c r="B55" s="44" t="s">
+        <v>148</v>
+      </c>
+      <c r="C55" s="44" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B56" s="44" t="s">
+        <v>149</v>
+      </c>
+      <c r="C56" s="99" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B57" s="44" t="s">
+        <v>150</v>
+      </c>
+      <c r="C57" s="26" t="s">
+        <v>191</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{795A1F16-30F3-4A29-90DF-4BE1F7680BC8}">
   <dimension ref="B1:R16"/>
   <sheetViews>
@@ -2256,230 +3347,230 @@
   <sheetData>
     <row r="1" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="52"/>
-      <c r="H2" s="50" t="s">
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="71"/>
+      <c r="H2" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="52"/>
-      <c r="N2" s="65" t="s">
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="71"/>
+      <c r="N2" s="84" t="s">
         <v>52</v>
       </c>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="66"/>
-      <c r="R2" s="67"/>
+      <c r="O2" s="85"/>
+      <c r="P2" s="85"/>
+      <c r="Q2" s="85"/>
+      <c r="R2" s="86"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B3" s="49">
+      <c r="B3" s="68">
         <v>1</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="48"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="67"/>
       <c r="H3" s="10">
         <v>1</v>
       </c>
-      <c r="I3" s="55" t="s">
+      <c r="I3" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="56"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
+      <c r="L3" s="75"/>
       <c r="N3" s="10">
         <v>1</v>
       </c>
-      <c r="O3" s="68" t="s">
+      <c r="O3" s="87" t="s">
         <v>53</v>
       </c>
-      <c r="P3" s="69"/>
-      <c r="Q3" s="69"/>
-      <c r="R3" s="70"/>
+      <c r="P3" s="88"/>
+      <c r="Q3" s="88"/>
+      <c r="R3" s="89"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B4" s="49"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="48"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="67"/>
       <c r="H4" s="10">
         <v>2</v>
       </c>
-      <c r="I4" s="55" t="s">
+      <c r="I4" s="74" t="s">
         <v>37</v>
       </c>
-      <c r="J4" s="55"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="56"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="75"/>
       <c r="N4" s="10">
         <v>2</v>
       </c>
-      <c r="O4" s="68" t="s">
+      <c r="O4" s="87" t="s">
         <v>54</v>
       </c>
-      <c r="P4" s="69"/>
-      <c r="Q4" s="69"/>
-      <c r="R4" s="70"/>
+      <c r="P4" s="88"/>
+      <c r="Q4" s="88"/>
+      <c r="R4" s="89"/>
     </row>
     <row r="5" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="9">
         <v>2</v>
       </c>
-      <c r="C5" s="53" t="s">
+      <c r="C5" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="54"/>
-      <c r="H5" s="61">
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="73"/>
+      <c r="H5" s="80">
         <v>3</v>
       </c>
-      <c r="I5" s="57" t="s">
+      <c r="I5" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="J5" s="57"/>
-      <c r="K5" s="57"/>
-      <c r="L5" s="58"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="77"/>
       <c r="N5" s="10">
         <v>3</v>
       </c>
-      <c r="O5" s="68" t="s">
+      <c r="O5" s="87" t="s">
         <v>55</v>
       </c>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="69"/>
-      <c r="R5" s="70"/>
+      <c r="P5" s="88"/>
+      <c r="Q5" s="88"/>
+      <c r="R5" s="89"/>
     </row>
     <row r="6" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H6" s="62"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="60"/>
+      <c r="H6" s="81"/>
+      <c r="I6" s="78"/>
+      <c r="J6" s="78"/>
+      <c r="K6" s="78"/>
+      <c r="L6" s="79"/>
       <c r="N6" s="10">
         <v>4</v>
       </c>
-      <c r="O6" s="68" t="s">
+      <c r="O6" s="87" t="s">
         <v>56</v>
       </c>
-      <c r="P6" s="69"/>
-      <c r="Q6" s="69"/>
-      <c r="R6" s="70"/>
+      <c r="P6" s="88"/>
+      <c r="Q6" s="88"/>
+      <c r="R6" s="89"/>
     </row>
     <row r="7" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="N7" s="10">
         <v>5</v>
       </c>
-      <c r="O7" s="68" t="s">
+      <c r="O7" s="87" t="s">
         <v>57</v>
       </c>
-      <c r="P7" s="69"/>
-      <c r="Q7" s="69"/>
-      <c r="R7" s="70"/>
+      <c r="P7" s="88"/>
+      <c r="Q7" s="88"/>
+      <c r="R7" s="89"/>
     </row>
     <row r="8" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="65" t="s">
+      <c r="B8" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="66"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="67"/>
-      <c r="H8" s="65" t="s">
+      <c r="C8" s="85"/>
+      <c r="D8" s="85"/>
+      <c r="E8" s="85"/>
+      <c r="F8" s="86"/>
+      <c r="H8" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="I8" s="66"/>
-      <c r="J8" s="66"/>
-      <c r="K8" s="66"/>
-      <c r="L8" s="67"/>
+      <c r="I8" s="85"/>
+      <c r="J8" s="85"/>
+      <c r="K8" s="85"/>
+      <c r="L8" s="86"/>
       <c r="N8" s="9">
         <v>6</v>
       </c>
-      <c r="O8" s="71" t="s">
+      <c r="O8" s="90" t="s">
         <v>58</v>
       </c>
-      <c r="P8" s="72"/>
-      <c r="Q8" s="72"/>
-      <c r="R8" s="73"/>
+      <c r="P8" s="91"/>
+      <c r="Q8" s="91"/>
+      <c r="R8" s="92"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" s="10">
         <v>1</v>
       </c>
-      <c r="C9" s="68" t="s">
+      <c r="C9" s="87" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="69"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="70"/>
+      <c r="D9" s="88"/>
+      <c r="E9" s="88"/>
+      <c r="F9" s="89"/>
       <c r="H9" s="10">
         <v>1</v>
       </c>
-      <c r="I9" s="68" t="s">
+      <c r="I9" s="87" t="s">
         <v>40</v>
       </c>
-      <c r="J9" s="69"/>
-      <c r="K9" s="69"/>
-      <c r="L9" s="70"/>
+      <c r="J9" s="88"/>
+      <c r="K9" s="88"/>
+      <c r="L9" s="89"/>
     </row>
     <row r="10" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="10">
         <v>2</v>
       </c>
-      <c r="C10" s="68" t="s">
+      <c r="C10" s="87" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="69"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="70"/>
+      <c r="D10" s="88"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="89"/>
       <c r="H10" s="9">
         <v>2</v>
       </c>
-      <c r="I10" s="71" t="s">
+      <c r="I10" s="90" t="s">
         <v>41</v>
       </c>
-      <c r="J10" s="72"/>
-      <c r="K10" s="72"/>
-      <c r="L10" s="73"/>
+      <c r="J10" s="91"/>
+      <c r="K10" s="91"/>
+      <c r="L10" s="92"/>
     </row>
     <row r="11" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="13">
         <v>3</v>
       </c>
-      <c r="C11" s="63" t="s">
+      <c r="C11" s="82" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="64"/>
+      <c r="D11" s="82"/>
+      <c r="E11" s="82"/>
+      <c r="F11" s="83"/>
     </row>
     <row r="12" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B13" s="50" t="s">
+      <c r="B13" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="52"/>
-      <c r="H13" s="50" t="s">
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="71"/>
+      <c r="H13" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="I13" s="51"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="51"/>
-      <c r="L13" s="52"/>
+      <c r="I13" s="70"/>
+      <c r="J13" s="70"/>
+      <c r="K13" s="70"/>
+      <c r="L13" s="71"/>
     </row>
     <row r="14" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="9">
@@ -2494,34 +3585,34 @@
       <c r="H14" s="10">
         <v>1</v>
       </c>
-      <c r="I14" s="68" t="s">
+      <c r="I14" s="87" t="s">
         <v>48</v>
       </c>
-      <c r="J14" s="69"/>
-      <c r="K14" s="69"/>
-      <c r="L14" s="70"/>
+      <c r="J14" s="88"/>
+      <c r="K14" s="88"/>
+      <c r="L14" s="89"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="H15" s="10">
         <v>2</v>
       </c>
-      <c r="I15" s="68" t="s">
+      <c r="I15" s="87" t="s">
         <v>49</v>
       </c>
-      <c r="J15" s="69"/>
-      <c r="K15" s="69"/>
-      <c r="L15" s="70"/>
+      <c r="J15" s="88"/>
+      <c r="K15" s="88"/>
+      <c r="L15" s="89"/>
     </row>
     <row r="16" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H16" s="9">
         <v>3</v>
       </c>
-      <c r="I16" s="71" t="s">
+      <c r="I16" s="90" t="s">
         <v>50</v>
       </c>
-      <c r="J16" s="72"/>
-      <c r="K16" s="72"/>
-      <c r="L16" s="73"/>
+      <c r="J16" s="91"/>
+      <c r="K16" s="91"/>
+      <c r="L16" s="92"/>
     </row>
   </sheetData>
   <mergeCells count="28">
@@ -2558,7 +3649,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{873CD05E-6233-48A7-9EB5-0E2D40608129}">
   <dimension ref="B2:I26"/>
   <sheetViews>
@@ -2573,13 +3664,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="93" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
@@ -2845,7 +3936,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E0D6609-B959-48DF-8897-F1C9078A146D}">
   <dimension ref="A1:H11"/>
   <sheetViews>
@@ -2862,26 +3953,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="93" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="93" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="F2" s="74" t="s">
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="F2" s="93" t="s">
         <v>95</v>
       </c>
-      <c r="G2" s="74"/>
+      <c r="G2" s="93"/>
       <c r="H2" t="s">
         <v>97</v>
       </c>
@@ -3008,7 +4099,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83DB2240-1AAB-466B-BC64-B9699C7A01B4}">
   <dimension ref="A1:H10"/>
   <sheetViews>
@@ -3041,7 +4132,7 @@
       <c r="D3" s="15">
         <v>5</v>
       </c>
-      <c r="E3" s="77" t="s">
+      <c r="E3" s="96" t="s">
         <v>116</v>
       </c>
       <c r="F3" s="18">
@@ -3060,7 +4151,7 @@
       <c r="D4" s="16">
         <v>16</v>
       </c>
-      <c r="E4" s="77"/>
+      <c r="E4" s="96"/>
       <c r="F4" s="17">
         <v>3.3000000000000002E-6</v>
       </c>
@@ -3079,10 +4170,10 @@
         <f>D6+F6/F7</f>
         <v>1.6479885057471264</v>
       </c>
-      <c r="D6" s="78">
+      <c r="D6" s="97">
         <v>0.75</v>
       </c>
-      <c r="E6" s="79" t="s">
+      <c r="E6" s="98" t="s">
         <v>119</v>
       </c>
       <c r="F6" s="22">
@@ -3091,8 +4182,8 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D7" s="78"/>
-      <c r="E7" s="77"/>
+      <c r="D7" s="97"/>
+      <c r="E7" s="96"/>
       <c r="F7" s="23">
         <v>2</v>
       </c>
@@ -3105,30 +4196,30 @@
         <f>SQRT(D9+F9/F10*G9)</f>
         <v>0.91175350405211986</v>
       </c>
-      <c r="D9" s="76">
+      <c r="D9" s="95">
         <f>D6^2</f>
         <v>0.5625</v>
       </c>
-      <c r="E9" s="79" t="s">
+      <c r="E9" s="98" t="s">
         <v>119</v>
       </c>
       <c r="F9" s="21">
         <v>1</v>
       </c>
-      <c r="G9" s="75">
+      <c r="G9" s="94">
         <f>B3^2</f>
         <v>3.2255334258158275</v>
       </c>
-      <c r="H9" s="76"/>
+      <c r="H9" s="95"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D10" s="76"/>
-      <c r="E10" s="77"/>
+      <c r="D10" s="95"/>
+      <c r="E10" s="96"/>
       <c r="F10" s="21">
         <v>12</v>
       </c>
-      <c r="G10" s="76"/>
-      <c r="H10" s="76"/>
+      <c r="G10" s="95"/>
+      <c r="H10" s="95"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -3141,4 +4232,148 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{536DEBA0-EA17-41E9-BB81-BBE048F594DA}">
+  <dimension ref="B1:D18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="43.28515625" customWidth="1"/>
+    <col min="3" max="3" width="35.140625" customWidth="1"/>
+    <col min="4" max="4" width="34.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" s="42" t="s">
+        <v>144</v>
+      </c>
+      <c r="D2" s="43" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="C3" s="30"/>
+      <c r="D3" s="37"/>
+    </row>
+    <row r="4" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="C4" s="28"/>
+      <c r="D4" s="29"/>
+    </row>
+    <row r="5" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="C5" s="39"/>
+      <c r="D5" s="40"/>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6" s="30"/>
+      <c r="D6" s="37"/>
+    </row>
+    <row r="7" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B7" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="C7" s="26"/>
+      <c r="D7" s="27"/>
+    </row>
+    <row r="8" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="C8" s="28"/>
+      <c r="D8" s="29"/>
+    </row>
+    <row r="9" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="C9" s="39"/>
+      <c r="D9" s="40"/>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="C10" s="30"/>
+      <c r="D10" s="37"/>
+    </row>
+    <row r="11" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B11" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="C11" s="26"/>
+      <c r="D11" s="27"/>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="C12" s="26"/>
+      <c r="D12" s="27"/>
+    </row>
+    <row r="13" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="C13" s="28"/>
+      <c r="D13" s="29"/>
+    </row>
+    <row r="14" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="C14" s="39"/>
+      <c r="D14" s="40"/>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="36" t="s">
+        <v>140</v>
+      </c>
+      <c r="C15" s="30"/>
+      <c r="D15" s="37"/>
+    </row>
+    <row r="16" spans="2:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="C16" s="28"/>
+      <c r="D16" s="29"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="C17" s="34"/>
+      <c r="D17" s="35"/>
+    </row>
+    <row r="18" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="C18" s="28"/>
+      <c r="D18" s="29"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ТЗ.xlsx
+++ b/ТЗ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e8de5e6e04a93b7d/Рабочий стол/Работы/7 семестр/МПС/MPS_Course_Work/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="124" documentId="8_{AE223CD1-AFB2-45CC-9FFC-597FEED66636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A603CC61-E8A9-4C67-AC43-937FDD713DE1}"/>
+  <xr:revisionPtr revIDLastSave="136" documentId="8_{AE223CD1-AFB2-45CC-9FFC-597FEED66636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{33D463C1-3491-4E4B-9013-F83AF0B5CDC8}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20940" windowHeight="12180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="16020" windowWidth="12090" windowHeight="5580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Функциональные требования" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Кварц" sheetId="5" r:id="rId6"/>
     <sheet name="DC-DC" sheetId="6" r:id="rId7"/>
     <sheet name="Функциональные объекты" sheetId="7" r:id="rId8"/>
+    <sheet name="Недочеты" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="198">
   <si>
     <t>Техническое задание для адаптера J2534</t>
   </si>
@@ -914,6 +915,18 @@
       <t>)</t>
     </r>
   </si>
+  <si>
+    <t>Светодиоды возможно имеет смысл подключать к 5V линии.</t>
+  </si>
+  <si>
+    <t>Светодиодами стоит управлять в режиме открытого коллектора</t>
+  </si>
+  <si>
+    <t>Расчет тока светодиодов проведен неверно (номиналов резисторов)</t>
+  </si>
+  <si>
+    <t>Проверить выбранную катушку на ток</t>
+  </si>
 </sst>
 </file>
 
@@ -1451,7 +1464,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -1539,56 +1552,91 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1598,15 +1646,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1634,27 +1673,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1672,12 +1690,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2022,13 +2034,13 @@
   <sheetData>
     <row r="1" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -2041,361 +2053,361 @@
       <c r="P2" s="4"/>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="54" t="s">
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="54" t="s">
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="55"/>
-      <c r="N3" s="55"/>
-      <c r="O3" s="55"/>
-      <c r="P3" s="56"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="50"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>1</v>
       </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="47"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="52"/>
       <c r="G4" s="1">
         <v>1</v>
       </c>
-      <c r="H4" s="46" t="s">
+      <c r="H4" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="47"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
       <c r="L4" s="1">
         <v>1</v>
       </c>
-      <c r="M4" s="48" t="s">
+      <c r="M4" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="N4" s="48"/>
-      <c r="O4" s="48"/>
-      <c r="P4" s="49"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="53"/>
+      <c r="P4" s="54"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>2</v>
       </c>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="47"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="52"/>
       <c r="G5" s="1">
         <v>2</v>
       </c>
-      <c r="H5" s="46" t="s">
+      <c r="H5" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="61">
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="57">
         <v>2</v>
       </c>
-      <c r="M5" s="59" t="s">
+      <c r="M5" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="N5" s="59"/>
-      <c r="O5" s="59"/>
-      <c r="P5" s="60"/>
+      <c r="N5" s="55"/>
+      <c r="O5" s="55"/>
+      <c r="P5" s="56"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="47"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="52"/>
       <c r="G6" s="1">
         <v>3</v>
       </c>
-      <c r="H6" s="46" t="s">
+      <c r="H6" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="61"/>
-      <c r="M6" s="59"/>
-      <c r="N6" s="59"/>
-      <c r="O6" s="59"/>
-      <c r="P6" s="60"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="55"/>
+      <c r="N6" s="55"/>
+      <c r="O6" s="55"/>
+      <c r="P6" s="56"/>
     </row>
     <row r="7" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="45">
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="66">
         <v>4</v>
       </c>
-      <c r="H7" s="64" t="s">
+      <c r="H7" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="64"/>
-      <c r="J7" s="64"/>
-      <c r="K7" s="65"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="61"/>
       <c r="L7" s="1">
         <v>3</v>
       </c>
-      <c r="M7" s="46" t="s">
+      <c r="M7" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="N7" s="46"/>
-      <c r="O7" s="46"/>
-      <c r="P7" s="47"/>
+      <c r="N7" s="51"/>
+      <c r="O7" s="51"/>
+      <c r="P7" s="52"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="64"/>
-      <c r="J8" s="64"/>
-      <c r="K8" s="65"/>
-      <c r="L8" s="61">
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="61"/>
+      <c r="L8" s="57">
         <v>4</v>
       </c>
-      <c r="M8" s="62" t="s">
+      <c r="M8" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="N8" s="62"/>
-      <c r="O8" s="62"/>
-      <c r="P8" s="63"/>
+      <c r="N8" s="58"/>
+      <c r="O8" s="58"/>
+      <c r="P8" s="59"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="47"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="52"/>
       <c r="G9" s="1">
         <v>5</v>
       </c>
-      <c r="H9" s="46" t="s">
+      <c r="H9" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="46"/>
-      <c r="J9" s="46"/>
-      <c r="K9" s="47"/>
-      <c r="L9" s="61"/>
-      <c r="M9" s="62"/>
-      <c r="N9" s="62"/>
-      <c r="O9" s="62"/>
-      <c r="P9" s="63"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="51"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="57"/>
+      <c r="M9" s="58"/>
+      <c r="N9" s="58"/>
+      <c r="O9" s="58"/>
+      <c r="P9" s="59"/>
     </row>
     <row r="10" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="47"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="52"/>
       <c r="G10" s="1">
         <v>6</v>
       </c>
-      <c r="H10" s="46" t="s">
+      <c r="H10" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="I10" s="46"/>
-      <c r="J10" s="46"/>
-      <c r="K10" s="47"/>
-      <c r="L10" s="61">
+      <c r="I10" s="51"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="57">
         <v>5</v>
       </c>
-      <c r="M10" s="62" t="s">
+      <c r="M10" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="N10" s="62"/>
-      <c r="O10" s="62"/>
-      <c r="P10" s="63"/>
+      <c r="N10" s="58"/>
+      <c r="O10" s="58"/>
+      <c r="P10" s="59"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="47"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="52"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="46"/>
-      <c r="J11" s="46"/>
-      <c r="K11" s="47"/>
-      <c r="L11" s="61"/>
-      <c r="M11" s="62"/>
-      <c r="N11" s="62"/>
-      <c r="O11" s="62"/>
-      <c r="P11" s="63"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="58"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="58"/>
+      <c r="P11" s="59"/>
     </row>
     <row r="12" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="47"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="52"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="46"/>
-      <c r="J12" s="46"/>
-      <c r="K12" s="47"/>
-      <c r="L12" s="61">
+      <c r="H12" s="51"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="57">
         <v>6</v>
       </c>
-      <c r="M12" s="59" t="s">
+      <c r="M12" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="N12" s="59"/>
-      <c r="O12" s="59"/>
-      <c r="P12" s="60"/>
+      <c r="N12" s="55"/>
+      <c r="O12" s="55"/>
+      <c r="P12" s="56"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="47"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="52"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="47"/>
-      <c r="L13" s="61"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="59"/>
-      <c r="O13" s="59"/>
-      <c r="P13" s="60"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="57"/>
+      <c r="M13" s="55"/>
+      <c r="N13" s="55"/>
+      <c r="O13" s="55"/>
+      <c r="P13" s="56"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="47"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="52"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="47"/>
-      <c r="L14" s="61"/>
-      <c r="M14" s="59"/>
-      <c r="N14" s="59"/>
-      <c r="O14" s="59"/>
-      <c r="P14" s="60"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="57"/>
+      <c r="M14" s="55"/>
+      <c r="N14" s="55"/>
+      <c r="O14" s="55"/>
+      <c r="P14" s="56"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="47"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="52"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="49"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="54"/>
       <c r="L15" s="1"/>
-      <c r="M15" s="46"/>
-      <c r="N15" s="46"/>
-      <c r="O15" s="46"/>
-      <c r="P15" s="47"/>
+      <c r="M15" s="51"/>
+      <c r="N15" s="51"/>
+      <c r="O15" s="51"/>
+      <c r="P15" s="52"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="47"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="52"/>
       <c r="G16" s="1"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="49"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="54"/>
       <c r="L16" s="1"/>
-      <c r="M16" s="46"/>
-      <c r="N16" s="46"/>
-      <c r="O16" s="46"/>
-      <c r="P16" s="47"/>
+      <c r="M16" s="51"/>
+      <c r="N16" s="51"/>
+      <c r="O16" s="51"/>
+      <c r="P16" s="52"/>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="47"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="52"/>
       <c r="G17" s="1"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="49"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="54"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="48"/>
-      <c r="N17" s="48"/>
-      <c r="O17" s="48"/>
-      <c r="P17" s="49"/>
+      <c r="M17" s="53"/>
+      <c r="N17" s="53"/>
+      <c r="O17" s="53"/>
+      <c r="P17" s="54"/>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="47"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="52"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="48"/>
-      <c r="K18" s="49"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="53"/>
+      <c r="K18" s="54"/>
       <c r="L18" s="1"/>
-      <c r="M18" s="48"/>
-      <c r="N18" s="48"/>
-      <c r="O18" s="48"/>
-      <c r="P18" s="49"/>
+      <c r="M18" s="53"/>
+      <c r="N18" s="53"/>
+      <c r="O18" s="53"/>
+      <c r="P18" s="54"/>
     </row>
     <row r="19" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="2"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="51"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="68"/>
       <c r="G19" s="2"/>
-      <c r="H19" s="52"/>
-      <c r="I19" s="52"/>
-      <c r="J19" s="52"/>
-      <c r="K19" s="53"/>
+      <c r="H19" s="62"/>
+      <c r="I19" s="62"/>
+      <c r="J19" s="62"/>
+      <c r="K19" s="63"/>
       <c r="L19" s="2"/>
-      <c r="M19" s="52"/>
-      <c r="N19" s="52"/>
-      <c r="O19" s="52"/>
-      <c r="P19" s="53"/>
+      <c r="M19" s="62"/>
+      <c r="N19" s="62"/>
+      <c r="O19" s="62"/>
+      <c r="P19" s="63"/>
     </row>
     <row r="20" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="54" t="s">
+      <c r="B21" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="55"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="56"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="50"/>
       <c r="H21" t="s">
         <v>20</v>
       </c>
@@ -2404,12 +2416,12 @@
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="57" t="s">
+      <c r="C22" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="57"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="58"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="64"/>
+      <c r="F22" s="65"/>
       <c r="H22" t="s">
         <v>22</v>
       </c>
@@ -2418,22 +2430,22 @@
       <c r="B23" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="48" t="s">
+      <c r="C23" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="D23" s="48"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="49"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="54"/>
       <c r="H23" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
-      <c r="C24" s="48"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="49"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="54"/>
       <c r="H24" t="s">
         <v>59</v>
       </c>
@@ -2443,74 +2455,67 @@
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="49"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="54"/>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
-      <c r="C26" s="48"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="49"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="54"/>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
-      <c r="C27" s="48"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="49"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="54"/>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
-      <c r="C28" s="48"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="49"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="54"/>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
-      <c r="C29" s="48"/>
-      <c r="D29" s="48"/>
-      <c r="E29" s="48"/>
-      <c r="F29" s="49"/>
+      <c r="C29" s="53"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="54"/>
     </row>
     <row r="30" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="2"/>
-      <c r="C30" s="52"/>
-      <c r="D30" s="52"/>
-      <c r="E30" s="52"/>
-      <c r="F30" s="53"/>
+      <c r="C30" s="62"/>
+      <c r="D30" s="62"/>
+      <c r="E30" s="62"/>
+      <c r="F30" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="G3:K3"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="H17:K17"/>
-    <mergeCell ref="H18:K18"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="L3:P3"/>
-    <mergeCell ref="M4:P4"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="M12:P14"/>
-    <mergeCell ref="L12:L14"/>
-    <mergeCell ref="M5:P6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M8:P9"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="M10:P11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="H7:K8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C26:F26"/>
     <mergeCell ref="M18:P18"/>
     <mergeCell ref="M19:P19"/>
     <mergeCell ref="C4:F4"/>
@@ -2527,25 +2532,32 @@
     <mergeCell ref="M17:P17"/>
     <mergeCell ref="H19:K19"/>
     <mergeCell ref="H16:K16"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="L3:P3"/>
+    <mergeCell ref="M4:P4"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="M12:P14"/>
+    <mergeCell ref="L12:L14"/>
+    <mergeCell ref="M5:P6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M8:P9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="M10:P11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="H7:K8"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="G3:K3"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="H5:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2556,7 +2568,7 @@
   <dimension ref="B2:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2944,7 +2956,7 @@
       <c r="B2" s="44" t="s">
         <v>148</v>
       </c>
-      <c r="C2" s="101" t="s">
+      <c r="C2" s="46" t="s">
         <v>151</v>
       </c>
       <c r="E2" t="s">
@@ -2974,7 +2986,7 @@
       <c r="B6" s="44" t="s">
         <v>148</v>
       </c>
-      <c r="C6" s="101" t="s">
+      <c r="C6" s="46" t="s">
         <v>154</v>
       </c>
     </row>
@@ -3001,7 +3013,7 @@
       <c r="B10" s="44" t="s">
         <v>148</v>
       </c>
-      <c r="C10" s="101" t="s">
+      <c r="C10" s="46" t="s">
         <v>156</v>
       </c>
     </row>
@@ -3028,7 +3040,7 @@
       <c r="B14" s="44" t="s">
         <v>148</v>
       </c>
-      <c r="C14" s="101" t="s">
+      <c r="C14" s="46" t="s">
         <v>158</v>
       </c>
     </row>
@@ -3049,10 +3061,10 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="100" t="s">
+      <c r="B17" s="45" t="s">
         <v>159</v>
       </c>
-      <c r="C17" s="99" t="s">
+      <c r="C17" s="44" t="s">
         <v>160</v>
       </c>
     </row>
@@ -3273,7 +3285,7 @@
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="102" t="s">
+      <c r="A51" s="47" t="s">
         <v>188</v>
       </c>
       <c r="B51" s="44" t="s">
@@ -3287,7 +3299,7 @@
       <c r="B52" s="44" t="s">
         <v>149</v>
       </c>
-      <c r="C52" s="99" t="s">
+      <c r="C52" s="44" t="s">
         <v>192</v>
       </c>
     </row>
@@ -3300,7 +3312,7 @@
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="102" t="s">
+      <c r="A55" s="47" t="s">
         <v>189</v>
       </c>
       <c r="B55" s="44" t="s">
@@ -3314,7 +3326,7 @@
       <c r="B56" s="44" t="s">
         <v>149</v>
       </c>
-      <c r="C56" s="99" t="s">
+      <c r="C56" s="44" t="s">
         <v>193</v>
       </c>
     </row>
@@ -3347,230 +3359,230 @@
   <sheetData>
     <row r="1" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="71"/>
-      <c r="H2" s="69" t="s">
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="80"/>
+      <c r="H2" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="71"/>
-      <c r="N2" s="84" t="s">
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="80"/>
+      <c r="N2" s="72" t="s">
         <v>52</v>
       </c>
-      <c r="O2" s="85"/>
-      <c r="P2" s="85"/>
-      <c r="Q2" s="85"/>
-      <c r="R2" s="86"/>
+      <c r="O2" s="73"/>
+      <c r="P2" s="73"/>
+      <c r="Q2" s="73"/>
+      <c r="R2" s="74"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B3" s="68">
+      <c r="B3" s="85">
         <v>1</v>
       </c>
-      <c r="C3" s="66" t="s">
+      <c r="C3" s="83" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="67"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="84"/>
       <c r="H3" s="10">
         <v>1</v>
       </c>
-      <c r="I3" s="74" t="s">
+      <c r="I3" s="88" t="s">
         <v>36</v>
       </c>
-      <c r="J3" s="74"/>
-      <c r="K3" s="74"/>
-      <c r="L3" s="75"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="89"/>
       <c r="N3" s="10">
         <v>1</v>
       </c>
-      <c r="O3" s="87" t="s">
+      <c r="O3" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="P3" s="88"/>
-      <c r="Q3" s="88"/>
-      <c r="R3" s="89"/>
+      <c r="P3" s="76"/>
+      <c r="Q3" s="76"/>
+      <c r="R3" s="77"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B4" s="68"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="67"/>
+      <c r="B4" s="85"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="84"/>
       <c r="H4" s="10">
         <v>2</v>
       </c>
-      <c r="I4" s="74" t="s">
+      <c r="I4" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="J4" s="74"/>
-      <c r="K4" s="74"/>
-      <c r="L4" s="75"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="89"/>
       <c r="N4" s="10">
         <v>2</v>
       </c>
-      <c r="O4" s="87" t="s">
+      <c r="O4" s="75" t="s">
         <v>54</v>
       </c>
-      <c r="P4" s="88"/>
-      <c r="Q4" s="88"/>
-      <c r="R4" s="89"/>
+      <c r="P4" s="76"/>
+      <c r="Q4" s="76"/>
+      <c r="R4" s="77"/>
     </row>
     <row r="5" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="9">
         <v>2</v>
       </c>
-      <c r="C5" s="72" t="s">
+      <c r="C5" s="86" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="73"/>
-      <c r="H5" s="80">
+      <c r="D5" s="86"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="87"/>
+      <c r="H5" s="94">
         <v>3</v>
       </c>
-      <c r="I5" s="76" t="s">
+      <c r="I5" s="90" t="s">
         <v>38</v>
       </c>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="77"/>
+      <c r="J5" s="90"/>
+      <c r="K5" s="90"/>
+      <c r="L5" s="91"/>
       <c r="N5" s="10">
         <v>3</v>
       </c>
-      <c r="O5" s="87" t="s">
+      <c r="O5" s="75" t="s">
         <v>55</v>
       </c>
-      <c r="P5" s="88"/>
-      <c r="Q5" s="88"/>
-      <c r="R5" s="89"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="77"/>
     </row>
     <row r="6" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H6" s="81"/>
-      <c r="I6" s="78"/>
-      <c r="J6" s="78"/>
-      <c r="K6" s="78"/>
-      <c r="L6" s="79"/>
+      <c r="H6" s="95"/>
+      <c r="I6" s="92"/>
+      <c r="J6" s="92"/>
+      <c r="K6" s="92"/>
+      <c r="L6" s="93"/>
       <c r="N6" s="10">
         <v>4</v>
       </c>
-      <c r="O6" s="87" t="s">
+      <c r="O6" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="P6" s="88"/>
-      <c r="Q6" s="88"/>
-      <c r="R6" s="89"/>
+      <c r="P6" s="76"/>
+      <c r="Q6" s="76"/>
+      <c r="R6" s="77"/>
     </row>
     <row r="7" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="N7" s="10">
         <v>5</v>
       </c>
-      <c r="O7" s="87" t="s">
+      <c r="O7" s="75" t="s">
         <v>57</v>
       </c>
-      <c r="P7" s="88"/>
-      <c r="Q7" s="88"/>
-      <c r="R7" s="89"/>
+      <c r="P7" s="76"/>
+      <c r="Q7" s="76"/>
+      <c r="R7" s="77"/>
     </row>
     <row r="8" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="84" t="s">
+      <c r="B8" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="85"/>
-      <c r="D8" s="85"/>
-      <c r="E8" s="85"/>
-      <c r="F8" s="86"/>
-      <c r="H8" s="84" t="s">
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="74"/>
+      <c r="H8" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="I8" s="85"/>
-      <c r="J8" s="85"/>
-      <c r="K8" s="85"/>
-      <c r="L8" s="86"/>
+      <c r="I8" s="73"/>
+      <c r="J8" s="73"/>
+      <c r="K8" s="73"/>
+      <c r="L8" s="74"/>
       <c r="N8" s="9">
         <v>6</v>
       </c>
-      <c r="O8" s="90" t="s">
+      <c r="O8" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="P8" s="91"/>
-      <c r="Q8" s="91"/>
-      <c r="R8" s="92"/>
+      <c r="P8" s="70"/>
+      <c r="Q8" s="70"/>
+      <c r="R8" s="71"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" s="10">
         <v>1</v>
       </c>
-      <c r="C9" s="87" t="s">
+      <c r="C9" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="88"/>
-      <c r="E9" s="88"/>
-      <c r="F9" s="89"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="77"/>
       <c r="H9" s="10">
         <v>1</v>
       </c>
-      <c r="I9" s="87" t="s">
+      <c r="I9" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="J9" s="88"/>
-      <c r="K9" s="88"/>
-      <c r="L9" s="89"/>
+      <c r="J9" s="76"/>
+      <c r="K9" s="76"/>
+      <c r="L9" s="77"/>
     </row>
     <row r="10" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="10">
         <v>2</v>
       </c>
-      <c r="C10" s="87" t="s">
+      <c r="C10" s="75" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="88"/>
-      <c r="E10" s="88"/>
-      <c r="F10" s="89"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="77"/>
       <c r="H10" s="9">
         <v>2</v>
       </c>
-      <c r="I10" s="90" t="s">
+      <c r="I10" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="J10" s="91"/>
-      <c r="K10" s="91"/>
-      <c r="L10" s="92"/>
+      <c r="J10" s="70"/>
+      <c r="K10" s="70"/>
+      <c r="L10" s="71"/>
     </row>
     <row r="11" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="13">
         <v>3</v>
       </c>
-      <c r="C11" s="82" t="s">
+      <c r="C11" s="81" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="82"/>
-      <c r="E11" s="82"/>
-      <c r="F11" s="83"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="82"/>
     </row>
     <row r="12" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B13" s="69" t="s">
+      <c r="B13" s="78" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="71"/>
-      <c r="H13" s="69" t="s">
+      <c r="C13" s="79"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="80"/>
+      <c r="H13" s="78" t="s">
         <v>47</v>
       </c>
-      <c r="I13" s="70"/>
-      <c r="J13" s="70"/>
-      <c r="K13" s="70"/>
-      <c r="L13" s="71"/>
+      <c r="I13" s="79"/>
+      <c r="J13" s="79"/>
+      <c r="K13" s="79"/>
+      <c r="L13" s="80"/>
     </row>
     <row r="14" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="9">
@@ -3585,56 +3597,37 @@
       <c r="H14" s="10">
         <v>1</v>
       </c>
-      <c r="I14" s="87" t="s">
+      <c r="I14" s="75" t="s">
         <v>48</v>
       </c>
-      <c r="J14" s="88"/>
-      <c r="K14" s="88"/>
-      <c r="L14" s="89"/>
+      <c r="J14" s="76"/>
+      <c r="K14" s="76"/>
+      <c r="L14" s="77"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="H15" s="10">
         <v>2</v>
       </c>
-      <c r="I15" s="87" t="s">
+      <c r="I15" s="75" t="s">
         <v>49</v>
       </c>
-      <c r="J15" s="88"/>
-      <c r="K15" s="88"/>
-      <c r="L15" s="89"/>
+      <c r="J15" s="76"/>
+      <c r="K15" s="76"/>
+      <c r="L15" s="77"/>
     </row>
     <row r="16" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H16" s="9">
         <v>3</v>
       </c>
-      <c r="I16" s="90" t="s">
+      <c r="I16" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="J16" s="91"/>
-      <c r="K16" s="91"/>
-      <c r="L16" s="92"/>
+      <c r="J16" s="70"/>
+      <c r="K16" s="70"/>
+      <c r="L16" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="O8:R8"/>
-    <mergeCell ref="N2:R2"/>
-    <mergeCell ref="O3:R3"/>
-    <mergeCell ref="O4:R4"/>
-    <mergeCell ref="O5:R5"/>
-    <mergeCell ref="O6:R6"/>
-    <mergeCell ref="O7:R7"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C10:F10"/>
     <mergeCell ref="C3:F4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B2:F2"/>
@@ -3644,6 +3637,25 @@
     <mergeCell ref="I4:L4"/>
     <mergeCell ref="I5:L6"/>
     <mergeCell ref="H5:H6"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="O8:R8"/>
+    <mergeCell ref="N2:R2"/>
+    <mergeCell ref="O3:R3"/>
+    <mergeCell ref="O4:R4"/>
+    <mergeCell ref="O5:R5"/>
+    <mergeCell ref="O6:R6"/>
+    <mergeCell ref="O7:R7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3664,13 +3676,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="93" t="s">
+      <c r="B2" s="96" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
@@ -3953,26 +3965,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="96" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="93" t="s">
+      <c r="A2" s="96" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="F2" s="93" t="s">
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="F2" s="96" t="s">
         <v>95</v>
       </c>
-      <c r="G2" s="93"/>
+      <c r="G2" s="96"/>
       <c r="H2" t="s">
         <v>97</v>
       </c>
@@ -4104,7 +4116,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4132,7 +4144,7 @@
       <c r="D3" s="15">
         <v>5</v>
       </c>
-      <c r="E3" s="96" t="s">
+      <c r="E3" s="99" t="s">
         <v>116</v>
       </c>
       <c r="F3" s="18">
@@ -4151,7 +4163,7 @@
       <c r="D4" s="16">
         <v>16</v>
       </c>
-      <c r="E4" s="96"/>
+      <c r="E4" s="99"/>
       <c r="F4" s="17">
         <v>3.3000000000000002E-6</v>
       </c>
@@ -4170,10 +4182,10 @@
         <f>D6+F6/F7</f>
         <v>1.6479885057471264</v>
       </c>
-      <c r="D6" s="97">
+      <c r="D6" s="100">
         <v>0.75</v>
       </c>
-      <c r="E6" s="98" t="s">
+      <c r="E6" s="101" t="s">
         <v>119</v>
       </c>
       <c r="F6" s="22">
@@ -4182,8 +4194,8 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D7" s="97"/>
-      <c r="E7" s="96"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="99"/>
       <c r="F7" s="23">
         <v>2</v>
       </c>
@@ -4196,30 +4208,30 @@
         <f>SQRT(D9+F9/F10*G9)</f>
         <v>0.91175350405211986</v>
       </c>
-      <c r="D9" s="95">
+      <c r="D9" s="98">
         <f>D6^2</f>
         <v>0.5625</v>
       </c>
-      <c r="E9" s="98" t="s">
+      <c r="E9" s="101" t="s">
         <v>119</v>
       </c>
       <c r="F9" s="21">
         <v>1</v>
       </c>
-      <c r="G9" s="94">
+      <c r="G9" s="97">
         <f>B3^2</f>
         <v>3.2255334258158275</v>
       </c>
-      <c r="H9" s="95"/>
+      <c r="H9" s="98"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D10" s="95"/>
-      <c r="E10" s="96"/>
+      <c r="D10" s="98"/>
+      <c r="E10" s="99"/>
       <c r="F10" s="21">
         <v>12</v>
       </c>
-      <c r="G10" s="95"/>
-      <c r="H10" s="95"/>
+      <c r="G10" s="98"/>
+      <c r="H10" s="98"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -4238,7 +4250,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{536DEBA0-EA17-41E9-BB81-BBE048F594DA}">
   <dimension ref="B1:D18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -4376,4 +4388,51 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5A4E34B-E49C-42D3-AC7B-88258515A7D0}">
+  <dimension ref="B2:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ТЗ.xlsx
+++ b/ТЗ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e8de5e6e04a93b7d/Рабочий стол/Работы/7 семестр/МПС/MPS_Course_Work/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="136" documentId="8_{AE223CD1-AFB2-45CC-9FFC-597FEED66636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{33D463C1-3491-4E4B-9013-F83AF0B5CDC8}"/>
+  <xr:revisionPtr revIDLastSave="139" documentId="8_{AE223CD1-AFB2-45CC-9FFC-597FEED66636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{630C20D6-FD05-4D96-BBFF-C14F62056196}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="16020" windowWidth="12090" windowHeight="5580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1380" yWindow="1815" windowWidth="12090" windowHeight="10980" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Функциональные требования" sheetId="1" r:id="rId1"/>
@@ -1464,7 +1464,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -1554,9 +1554,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1566,14 +1582,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1595,34 +1605,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1631,21 +1622,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1673,6 +1649,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1691,6 +1688,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -2034,13 +2035,13 @@
   <sheetData>
     <row r="1" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -2053,361 +2054,361 @@
       <c r="P2" s="4"/>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="48" t="s">
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="48" t="s">
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
-      <c r="P3" s="50"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="57"/>
+      <c r="O3" s="57"/>
+      <c r="P3" s="58"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>1</v>
       </c>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="52"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="49"/>
       <c r="G4" s="1">
         <v>1</v>
       </c>
-      <c r="H4" s="51" t="s">
+      <c r="H4" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="49"/>
       <c r="L4" s="1">
         <v>1</v>
       </c>
-      <c r="M4" s="53" t="s">
+      <c r="M4" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="N4" s="53"/>
-      <c r="O4" s="53"/>
-      <c r="P4" s="54"/>
+      <c r="N4" s="50"/>
+      <c r="O4" s="50"/>
+      <c r="P4" s="51"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>2</v>
       </c>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="52"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="49"/>
       <c r="G5" s="1">
         <v>2</v>
       </c>
-      <c r="H5" s="51" t="s">
+      <c r="H5" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="52"/>
-      <c r="L5" s="57">
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="63">
         <v>2</v>
       </c>
-      <c r="M5" s="55" t="s">
+      <c r="M5" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="N5" s="55"/>
-      <c r="O5" s="55"/>
-      <c r="P5" s="56"/>
+      <c r="N5" s="61"/>
+      <c r="O5" s="61"/>
+      <c r="P5" s="62"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="52"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="49"/>
       <c r="G6" s="1">
         <v>3</v>
       </c>
-      <c r="H6" s="51" t="s">
+      <c r="H6" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="51"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="57"/>
-      <c r="M6" s="55"/>
-      <c r="N6" s="55"/>
-      <c r="O6" s="55"/>
-      <c r="P6" s="56"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="63"/>
+      <c r="M6" s="61"/>
+      <c r="N6" s="61"/>
+      <c r="O6" s="61"/>
+      <c r="P6" s="62"/>
     </row>
     <row r="7" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="66">
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="47">
         <v>4</v>
       </c>
-      <c r="H7" s="60" t="s">
+      <c r="H7" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
-      <c r="K7" s="61"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="66"/>
+      <c r="K7" s="67"/>
       <c r="L7" s="1">
         <v>3</v>
       </c>
-      <c r="M7" s="51" t="s">
+      <c r="M7" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="N7" s="51"/>
-      <c r="O7" s="51"/>
-      <c r="P7" s="52"/>
+      <c r="N7" s="48"/>
+      <c r="O7" s="48"/>
+      <c r="P7" s="49"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="60"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="60"/>
-      <c r="K8" s="61"/>
-      <c r="L8" s="57">
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="66"/>
+      <c r="K8" s="67"/>
+      <c r="L8" s="63">
         <v>4</v>
       </c>
-      <c r="M8" s="58" t="s">
+      <c r="M8" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="N8" s="58"/>
-      <c r="O8" s="58"/>
-      <c r="P8" s="59"/>
+      <c r="N8" s="64"/>
+      <c r="O8" s="64"/>
+      <c r="P8" s="65"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="52"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="49"/>
       <c r="G9" s="1">
         <v>5</v>
       </c>
-      <c r="H9" s="51" t="s">
+      <c r="H9" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="51"/>
-      <c r="J9" s="51"/>
-      <c r="K9" s="52"/>
-      <c r="L9" s="57"/>
-      <c r="M9" s="58"/>
-      <c r="N9" s="58"/>
-      <c r="O9" s="58"/>
-      <c r="P9" s="59"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="63"/>
+      <c r="M9" s="64"/>
+      <c r="N9" s="64"/>
+      <c r="O9" s="64"/>
+      <c r="P9" s="65"/>
     </row>
     <row r="10" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="52"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="49"/>
       <c r="G10" s="1">
         <v>6</v>
       </c>
-      <c r="H10" s="51" t="s">
+      <c r="H10" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="I10" s="51"/>
-      <c r="J10" s="51"/>
-      <c r="K10" s="52"/>
-      <c r="L10" s="57">
+      <c r="I10" s="48"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="63">
         <v>5</v>
       </c>
-      <c r="M10" s="58" t="s">
+      <c r="M10" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="N10" s="58"/>
-      <c r="O10" s="58"/>
-      <c r="P10" s="59"/>
+      <c r="N10" s="64"/>
+      <c r="O10" s="64"/>
+      <c r="P10" s="65"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="52"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="49"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="52"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="58"/>
-      <c r="N11" s="58"/>
-      <c r="O11" s="58"/>
-      <c r="P11" s="59"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="63"/>
+      <c r="M11" s="64"/>
+      <c r="N11" s="64"/>
+      <c r="O11" s="64"/>
+      <c r="P11" s="65"/>
     </row>
     <row r="12" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="52"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="49"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="51"/>
-      <c r="K12" s="52"/>
-      <c r="L12" s="57">
+      <c r="H12" s="48"/>
+      <c r="I12" s="48"/>
+      <c r="J12" s="48"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="63">
         <v>6</v>
       </c>
-      <c r="M12" s="55" t="s">
+      <c r="M12" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="N12" s="55"/>
-      <c r="O12" s="55"/>
-      <c r="P12" s="56"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="61"/>
+      <c r="P12" s="62"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="52"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="49"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="52"/>
-      <c r="L13" s="57"/>
-      <c r="M13" s="55"/>
-      <c r="N13" s="55"/>
-      <c r="O13" s="55"/>
-      <c r="P13" s="56"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="48"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="61"/>
+      <c r="N13" s="61"/>
+      <c r="O13" s="61"/>
+      <c r="P13" s="62"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="52"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="49"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="51"/>
-      <c r="K14" s="52"/>
-      <c r="L14" s="57"/>
-      <c r="M14" s="55"/>
-      <c r="N14" s="55"/>
-      <c r="O14" s="55"/>
-      <c r="P14" s="56"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="63"/>
+      <c r="M14" s="61"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="61"/>
+      <c r="P14" s="62"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="52"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="49"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="53"/>
-      <c r="K15" s="54"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="51"/>
       <c r="L15" s="1"/>
-      <c r="M15" s="51"/>
-      <c r="N15" s="51"/>
-      <c r="O15" s="51"/>
-      <c r="P15" s="52"/>
+      <c r="M15" s="48"/>
+      <c r="N15" s="48"/>
+      <c r="O15" s="48"/>
+      <c r="P15" s="49"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="52"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="49"/>
       <c r="G16" s="1"/>
-      <c r="H16" s="53"/>
-      <c r="I16" s="53"/>
-      <c r="J16" s="53"/>
-      <c r="K16" s="54"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="51"/>
       <c r="L16" s="1"/>
-      <c r="M16" s="51"/>
-      <c r="N16" s="51"/>
-      <c r="O16" s="51"/>
-      <c r="P16" s="52"/>
+      <c r="M16" s="48"/>
+      <c r="N16" s="48"/>
+      <c r="O16" s="48"/>
+      <c r="P16" s="49"/>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="52"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="49"/>
       <c r="G17" s="1"/>
-      <c r="H17" s="53"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="53"/>
-      <c r="K17" s="54"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="51"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="53"/>
-      <c r="N17" s="53"/>
-      <c r="O17" s="53"/>
-      <c r="P17" s="54"/>
+      <c r="M17" s="50"/>
+      <c r="N17" s="50"/>
+      <c r="O17" s="50"/>
+      <c r="P17" s="51"/>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="52"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="49"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="53"/>
-      <c r="I18" s="53"/>
-      <c r="J18" s="53"/>
-      <c r="K18" s="54"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="51"/>
       <c r="L18" s="1"/>
-      <c r="M18" s="53"/>
-      <c r="N18" s="53"/>
-      <c r="O18" s="53"/>
-      <c r="P18" s="54"/>
+      <c r="M18" s="50"/>
+      <c r="N18" s="50"/>
+      <c r="O18" s="50"/>
+      <c r="P18" s="51"/>
     </row>
     <row r="19" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="2"/>
-      <c r="C19" s="67"/>
-      <c r="D19" s="67"/>
-      <c r="E19" s="67"/>
-      <c r="F19" s="68"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="53"/>
       <c r="G19" s="2"/>
-      <c r="H19" s="62"/>
-      <c r="I19" s="62"/>
-      <c r="J19" s="62"/>
-      <c r="K19" s="63"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="54"/>
+      <c r="K19" s="55"/>
       <c r="L19" s="2"/>
-      <c r="M19" s="62"/>
-      <c r="N19" s="62"/>
-      <c r="O19" s="62"/>
-      <c r="P19" s="63"/>
+      <c r="M19" s="54"/>
+      <c r="N19" s="54"/>
+      <c r="O19" s="54"/>
+      <c r="P19" s="55"/>
     </row>
     <row r="20" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="48" t="s">
+      <c r="B21" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="49"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="50"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="58"/>
       <c r="H21" t="s">
         <v>20</v>
       </c>
@@ -2416,12 +2417,12 @@
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="64" t="s">
+      <c r="C22" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="64"/>
-      <c r="E22" s="64"/>
-      <c r="F22" s="65"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="60"/>
       <c r="H22" t="s">
         <v>22</v>
       </c>
@@ -2430,22 +2431,22 @@
       <c r="B23" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="53" t="s">
+      <c r="C23" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="D23" s="53"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="54"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="51"/>
       <c r="H23" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
-      <c r="C24" s="53"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="54"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="51"/>
       <c r="H24" t="s">
         <v>59</v>
       </c>
@@ -2455,67 +2456,74 @@
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
-      <c r="C25" s="53"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="54"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="51"/>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
-      <c r="C26" s="53"/>
-      <c r="D26" s="53"/>
-      <c r="E26" s="53"/>
-      <c r="F26" s="54"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="51"/>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
-      <c r="C27" s="53"/>
-      <c r="D27" s="53"/>
-      <c r="E27" s="53"/>
-      <c r="F27" s="54"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="51"/>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
-      <c r="C28" s="53"/>
-      <c r="D28" s="53"/>
-      <c r="E28" s="53"/>
-      <c r="F28" s="54"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="51"/>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
-      <c r="C29" s="53"/>
-      <c r="D29" s="53"/>
-      <c r="E29" s="53"/>
-      <c r="F29" s="54"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="51"/>
     </row>
     <row r="30" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="2"/>
-      <c r="C30" s="62"/>
-      <c r="D30" s="62"/>
-      <c r="E30" s="62"/>
-      <c r="F30" s="63"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="G3:K3"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L3:P3"/>
+    <mergeCell ref="M4:P4"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="M12:P14"/>
+    <mergeCell ref="L12:L14"/>
+    <mergeCell ref="M5:P6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M8:P9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="M10:P11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="H7:K8"/>
     <mergeCell ref="M18:P18"/>
     <mergeCell ref="M19:P19"/>
     <mergeCell ref="C4:F4"/>
@@ -2532,32 +2540,25 @@
     <mergeCell ref="M17:P17"/>
     <mergeCell ref="H19:K19"/>
     <mergeCell ref="H16:K16"/>
-    <mergeCell ref="L3:P3"/>
-    <mergeCell ref="M4:P4"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="M12:P14"/>
-    <mergeCell ref="L12:L14"/>
-    <mergeCell ref="M5:P6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M8:P9"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="M10:P11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="H7:K8"/>
-    <mergeCell ref="H17:K17"/>
-    <mergeCell ref="H18:K18"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="G3:K3"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="C17:F17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2567,7 +2568,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A09C219B-0FC9-408A-A2E3-34F5CACED5E6}">
   <dimension ref="B2:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -2939,8 +2940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1DBCC47-8DF6-4EAE-923D-653C13CC3D25}">
   <dimension ref="A2:E57"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2950,7 +2951,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="44">
         <v>1</v>
       </c>
       <c r="B2" s="44" t="s">
@@ -2964,6 +2965,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="44"/>
       <c r="B3" s="44" t="s">
         <v>149</v>
       </c>
@@ -2972,6 +2974,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="44"/>
       <c r="B4" s="44" t="s">
         <v>150</v>
       </c>
@@ -2979,8 +2982,13 @@
         <v>153</v>
       </c>
     </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="44"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+    </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="44">
         <v>2</v>
       </c>
       <c r="B6" s="44" t="s">
@@ -2991,6 +2999,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="44"/>
       <c r="B7" s="44" t="s">
         <v>149</v>
       </c>
@@ -2999,6 +3008,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="44"/>
       <c r="B8" s="44" t="s">
         <v>150</v>
       </c>
@@ -3006,8 +3016,13 @@
         <v>155</v>
       </c>
     </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="44"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+    </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="44">
         <v>3</v>
       </c>
       <c r="B10" s="44" t="s">
@@ -3018,6 +3033,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="44"/>
       <c r="B11" s="44" t="s">
         <v>149</v>
       </c>
@@ -3026,6 +3042,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="44"/>
       <c r="B12" s="44" t="s">
         <v>150</v>
       </c>
@@ -3033,8 +3050,13 @@
         <v>185</v>
       </c>
     </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="44"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
+    </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="A14" s="44">
         <v>4</v>
       </c>
       <c r="B14" s="44" t="s">
@@ -3045,6 +3067,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="44"/>
       <c r="B15" s="44" t="s">
         <v>149</v>
       </c>
@@ -3053,6 +3076,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="44"/>
       <c r="B16" s="44" t="s">
         <v>150</v>
       </c>
@@ -3061,6 +3085,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="44"/>
       <c r="B17" s="45" t="s">
         <v>159</v>
       </c>
@@ -3068,8 +3093,13 @@
         <v>160</v>
       </c>
     </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="44"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="44"/>
+    </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="A19" s="44">
         <v>5</v>
       </c>
       <c r="B19" s="44" t="s">
@@ -3080,14 +3110,16 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="44"/>
       <c r="B20" s="44" t="s">
         <v>149</v>
       </c>
-      <c r="C20" s="44" t="s">
+      <c r="C20" s="102" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="44"/>
       <c r="B21" s="44" t="s">
         <v>150</v>
       </c>
@@ -3095,8 +3127,13 @@
         <v>163</v>
       </c>
     </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="44"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="44"/>
+    </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="A23" s="44">
         <v>6</v>
       </c>
       <c r="B23" s="44" t="s">
@@ -3107,6 +3144,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="44"/>
       <c r="B24" s="44" t="s">
         <v>149</v>
       </c>
@@ -3115,6 +3153,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="44"/>
       <c r="B25" s="44" t="s">
         <v>150</v>
       </c>
@@ -3122,8 +3161,13 @@
         <v>155</v>
       </c>
     </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="44"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="44"/>
+    </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="A27" s="44">
         <v>7</v>
       </c>
       <c r="B27" s="44" t="s">
@@ -3134,6 +3178,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="44"/>
       <c r="B28" s="44" t="s">
         <v>149</v>
       </c>
@@ -3142,6 +3187,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="44"/>
       <c r="B29" s="44" t="s">
         <v>150</v>
       </c>
@@ -3149,8 +3195,13 @@
         <v>165</v>
       </c>
     </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="44"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="44"/>
+    </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31">
+      <c r="A31" s="44">
         <v>8</v>
       </c>
       <c r="B31" s="44" t="s">
@@ -3161,6 +3212,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="44"/>
       <c r="B32" s="44" t="s">
         <v>149</v>
       </c>
@@ -3169,6 +3221,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="44"/>
       <c r="B33" s="44" t="s">
         <v>150</v>
       </c>
@@ -3176,8 +3229,13 @@
         <v>155</v>
       </c>
     </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="44"/>
+      <c r="B34" s="44"/>
+      <c r="C34" s="44"/>
+    </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35">
+      <c r="A35" s="44">
         <v>9</v>
       </c>
       <c r="B35" s="44" t="s">
@@ -3188,6 +3246,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="44"/>
       <c r="B36" s="44" t="s">
         <v>149</v>
       </c>
@@ -3196,6 +3255,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="44"/>
       <c r="B37" s="44" t="s">
         <v>150</v>
       </c>
@@ -3203,8 +3263,13 @@
         <v>155</v>
       </c>
     </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="44"/>
+      <c r="B38" s="44"/>
+      <c r="C38" s="44"/>
+    </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39">
+      <c r="A39" s="44">
         <v>10</v>
       </c>
       <c r="B39" s="44" t="s">
@@ -3215,6 +3280,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="44"/>
       <c r="B40" s="44" t="s">
         <v>149</v>
       </c>
@@ -3223,6 +3289,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A41" s="44"/>
       <c r="B41" s="44" t="s">
         <v>150</v>
       </c>
@@ -3230,8 +3297,13 @@
         <v>173</v>
       </c>
     </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="44"/>
+      <c r="B42" s="44"/>
+      <c r="C42" s="44"/>
+    </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43">
+      <c r="A43" s="44">
         <v>11</v>
       </c>
       <c r="B43" s="44" t="s">
@@ -3242,6 +3314,7 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="44"/>
       <c r="B44" s="44" t="s">
         <v>149</v>
       </c>
@@ -3250,6 +3323,7 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A45" s="44"/>
       <c r="B45" s="44" t="s">
         <v>150</v>
       </c>
@@ -3257,8 +3331,13 @@
         <v>172</v>
       </c>
     </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="44"/>
+      <c r="B46" s="44"/>
+      <c r="C46" s="44"/>
+    </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47">
+      <c r="A47" s="44">
         <v>12</v>
       </c>
       <c r="B47" s="44" t="s">
@@ -3269,6 +3348,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="44"/>
       <c r="B48" s="44" t="s">
         <v>149</v>
       </c>
@@ -3277,6 +3357,7 @@
       </c>
     </row>
     <row r="49" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A49" s="44"/>
       <c r="B49" s="44" t="s">
         <v>150</v>
       </c>
@@ -3284,8 +3365,13 @@
         <v>175</v>
       </c>
     </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="44"/>
+      <c r="B50" s="44"/>
+      <c r="C50" s="44"/>
+    </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="47" t="s">
+      <c r="A51" s="101" t="s">
         <v>188</v>
       </c>
       <c r="B51" s="44" t="s">
@@ -3296,6 +3382,7 @@
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="44"/>
       <c r="B52" s="44" t="s">
         <v>149</v>
       </c>
@@ -3304,6 +3391,7 @@
       </c>
     </row>
     <row r="53" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A53" s="44"/>
       <c r="B53" s="44" t="s">
         <v>150</v>
       </c>
@@ -3311,8 +3399,13 @@
         <v>187</v>
       </c>
     </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="44"/>
+      <c r="B54" s="44"/>
+      <c r="C54" s="44"/>
+    </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="47" t="s">
+      <c r="A55" s="101" t="s">
         <v>189</v>
       </c>
       <c r="B55" s="44" t="s">
@@ -3323,6 +3416,7 @@
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="44"/>
       <c r="B56" s="44" t="s">
         <v>149</v>
       </c>
@@ -3331,6 +3425,7 @@
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="44"/>
       <c r="B57" s="44" t="s">
         <v>150</v>
       </c>
@@ -3359,230 +3454,230 @@
   <sheetData>
     <row r="1" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="80"/>
-      <c r="H2" s="78" t="s">
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="73"/>
+      <c r="H2" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="80"/>
-      <c r="N2" s="72" t="s">
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="73"/>
+      <c r="N2" s="86" t="s">
         <v>52</v>
       </c>
-      <c r="O2" s="73"/>
-      <c r="P2" s="73"/>
-      <c r="Q2" s="73"/>
-      <c r="R2" s="74"/>
+      <c r="O2" s="87"/>
+      <c r="P2" s="87"/>
+      <c r="Q2" s="87"/>
+      <c r="R2" s="88"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B3" s="85">
+      <c r="B3" s="70">
         <v>1</v>
       </c>
-      <c r="C3" s="83" t="s">
+      <c r="C3" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="84"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="69"/>
       <c r="H3" s="10">
         <v>1</v>
       </c>
-      <c r="I3" s="88" t="s">
+      <c r="I3" s="76" t="s">
         <v>36</v>
       </c>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="89"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="77"/>
       <c r="N3" s="10">
         <v>1</v>
       </c>
-      <c r="O3" s="75" t="s">
+      <c r="O3" s="89" t="s">
         <v>53</v>
       </c>
-      <c r="P3" s="76"/>
-      <c r="Q3" s="76"/>
-      <c r="R3" s="77"/>
+      <c r="P3" s="90"/>
+      <c r="Q3" s="90"/>
+      <c r="R3" s="91"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B4" s="85"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="84"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="69"/>
       <c r="H4" s="10">
         <v>2</v>
       </c>
-      <c r="I4" s="88" t="s">
+      <c r="I4" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="J4" s="88"/>
-      <c r="K4" s="88"/>
-      <c r="L4" s="89"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="76"/>
+      <c r="L4" s="77"/>
       <c r="N4" s="10">
         <v>2</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="89" t="s">
         <v>54</v>
       </c>
-      <c r="P4" s="76"/>
-      <c r="Q4" s="76"/>
-      <c r="R4" s="77"/>
+      <c r="P4" s="90"/>
+      <c r="Q4" s="90"/>
+      <c r="R4" s="91"/>
     </row>
     <row r="5" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="9">
         <v>2</v>
       </c>
-      <c r="C5" s="86" t="s">
+      <c r="C5" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="86"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="87"/>
-      <c r="H5" s="94">
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="75"/>
+      <c r="H5" s="82">
         <v>3</v>
       </c>
-      <c r="I5" s="90" t="s">
+      <c r="I5" s="78" t="s">
         <v>38</v>
       </c>
-      <c r="J5" s="90"/>
-      <c r="K5" s="90"/>
-      <c r="L5" s="91"/>
+      <c r="J5" s="78"/>
+      <c r="K5" s="78"/>
+      <c r="L5" s="79"/>
       <c r="N5" s="10">
         <v>3</v>
       </c>
-      <c r="O5" s="75" t="s">
+      <c r="O5" s="89" t="s">
         <v>55</v>
       </c>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="77"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="90"/>
+      <c r="R5" s="91"/>
     </row>
     <row r="6" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H6" s="95"/>
-      <c r="I6" s="92"/>
-      <c r="J6" s="92"/>
-      <c r="K6" s="92"/>
-      <c r="L6" s="93"/>
+      <c r="H6" s="83"/>
+      <c r="I6" s="80"/>
+      <c r="J6" s="80"/>
+      <c r="K6" s="80"/>
+      <c r="L6" s="81"/>
       <c r="N6" s="10">
         <v>4</v>
       </c>
-      <c r="O6" s="75" t="s">
+      <c r="O6" s="89" t="s">
         <v>56</v>
       </c>
-      <c r="P6" s="76"/>
-      <c r="Q6" s="76"/>
-      <c r="R6" s="77"/>
+      <c r="P6" s="90"/>
+      <c r="Q6" s="90"/>
+      <c r="R6" s="91"/>
     </row>
     <row r="7" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="N7" s="10">
         <v>5</v>
       </c>
-      <c r="O7" s="75" t="s">
+      <c r="O7" s="89" t="s">
         <v>57</v>
       </c>
-      <c r="P7" s="76"/>
-      <c r="Q7" s="76"/>
-      <c r="R7" s="77"/>
+      <c r="P7" s="90"/>
+      <c r="Q7" s="90"/>
+      <c r="R7" s="91"/>
     </row>
     <row r="8" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="72" t="s">
+      <c r="B8" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="73"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="74"/>
-      <c r="H8" s="72" t="s">
+      <c r="C8" s="87"/>
+      <c r="D8" s="87"/>
+      <c r="E8" s="87"/>
+      <c r="F8" s="88"/>
+      <c r="H8" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="I8" s="73"/>
-      <c r="J8" s="73"/>
-      <c r="K8" s="73"/>
-      <c r="L8" s="74"/>
+      <c r="I8" s="87"/>
+      <c r="J8" s="87"/>
+      <c r="K8" s="87"/>
+      <c r="L8" s="88"/>
       <c r="N8" s="9">
         <v>6</v>
       </c>
-      <c r="O8" s="69" t="s">
+      <c r="O8" s="92" t="s">
         <v>58</v>
       </c>
-      <c r="P8" s="70"/>
-      <c r="Q8" s="70"/>
-      <c r="R8" s="71"/>
+      <c r="P8" s="93"/>
+      <c r="Q8" s="93"/>
+      <c r="R8" s="94"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" s="10">
         <v>1</v>
       </c>
-      <c r="C9" s="75" t="s">
+      <c r="C9" s="89" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="76"/>
-      <c r="E9" s="76"/>
-      <c r="F9" s="77"/>
+      <c r="D9" s="90"/>
+      <c r="E9" s="90"/>
+      <c r="F9" s="91"/>
       <c r="H9" s="10">
         <v>1</v>
       </c>
-      <c r="I9" s="75" t="s">
+      <c r="I9" s="89" t="s">
         <v>40</v>
       </c>
-      <c r="J9" s="76"/>
-      <c r="K9" s="76"/>
-      <c r="L9" s="77"/>
+      <c r="J9" s="90"/>
+      <c r="K9" s="90"/>
+      <c r="L9" s="91"/>
     </row>
     <row r="10" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="10">
         <v>2</v>
       </c>
-      <c r="C10" s="75" t="s">
+      <c r="C10" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="76"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="77"/>
+      <c r="D10" s="90"/>
+      <c r="E10" s="90"/>
+      <c r="F10" s="91"/>
       <c r="H10" s="9">
         <v>2</v>
       </c>
-      <c r="I10" s="69" t="s">
+      <c r="I10" s="92" t="s">
         <v>41</v>
       </c>
-      <c r="J10" s="70"/>
-      <c r="K10" s="70"/>
-      <c r="L10" s="71"/>
+      <c r="J10" s="93"/>
+      <c r="K10" s="93"/>
+      <c r="L10" s="94"/>
     </row>
     <row r="11" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="13">
         <v>3</v>
       </c>
-      <c r="C11" s="81" t="s">
+      <c r="C11" s="84" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="81"/>
-      <c r="E11" s="81"/>
-      <c r="F11" s="82"/>
+      <c r="D11" s="84"/>
+      <c r="E11" s="84"/>
+      <c r="F11" s="85"/>
     </row>
     <row r="12" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B13" s="78" t="s">
+      <c r="B13" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="79"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="79"/>
-      <c r="F13" s="80"/>
-      <c r="H13" s="78" t="s">
+      <c r="C13" s="72"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="73"/>
+      <c r="H13" s="71" t="s">
         <v>47</v>
       </c>
-      <c r="I13" s="79"/>
-      <c r="J13" s="79"/>
-      <c r="K13" s="79"/>
-      <c r="L13" s="80"/>
+      <c r="I13" s="72"/>
+      <c r="J13" s="72"/>
+      <c r="K13" s="72"/>
+      <c r="L13" s="73"/>
     </row>
     <row r="14" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="9">
@@ -3597,37 +3692,56 @@
       <c r="H14" s="10">
         <v>1</v>
       </c>
-      <c r="I14" s="75" t="s">
+      <c r="I14" s="89" t="s">
         <v>48</v>
       </c>
-      <c r="J14" s="76"/>
-      <c r="K14" s="76"/>
-      <c r="L14" s="77"/>
+      <c r="J14" s="90"/>
+      <c r="K14" s="90"/>
+      <c r="L14" s="91"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="H15" s="10">
         <v>2</v>
       </c>
-      <c r="I15" s="75" t="s">
+      <c r="I15" s="89" t="s">
         <v>49</v>
       </c>
-      <c r="J15" s="76"/>
-      <c r="K15" s="76"/>
-      <c r="L15" s="77"/>
+      <c r="J15" s="90"/>
+      <c r="K15" s="90"/>
+      <c r="L15" s="91"/>
     </row>
     <row r="16" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H16" s="9">
         <v>3</v>
       </c>
-      <c r="I16" s="69" t="s">
+      <c r="I16" s="92" t="s">
         <v>50</v>
       </c>
-      <c r="J16" s="70"/>
-      <c r="K16" s="70"/>
-      <c r="L16" s="71"/>
+      <c r="J16" s="93"/>
+      <c r="K16" s="93"/>
+      <c r="L16" s="94"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="O8:R8"/>
+    <mergeCell ref="N2:R2"/>
+    <mergeCell ref="O3:R3"/>
+    <mergeCell ref="O4:R4"/>
+    <mergeCell ref="O5:R5"/>
+    <mergeCell ref="O6:R6"/>
+    <mergeCell ref="O7:R7"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C10:F10"/>
     <mergeCell ref="C3:F4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B2:F2"/>
@@ -3637,25 +3751,6 @@
     <mergeCell ref="I4:L4"/>
     <mergeCell ref="I5:L6"/>
     <mergeCell ref="H5:H6"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="O8:R8"/>
-    <mergeCell ref="N2:R2"/>
-    <mergeCell ref="O3:R3"/>
-    <mergeCell ref="O4:R4"/>
-    <mergeCell ref="O5:R5"/>
-    <mergeCell ref="O6:R6"/>
-    <mergeCell ref="O7:R7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3676,13 +3771,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="96" t="s">
+      <c r="B2" s="95" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
@@ -3965,26 +4060,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="95" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="96" t="s">
+      <c r="A2" s="95" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="F2" s="96" t="s">
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="F2" s="95" t="s">
         <v>95</v>
       </c>
-      <c r="G2" s="96"/>
+      <c r="G2" s="95"/>
       <c r="H2" t="s">
         <v>97</v>
       </c>
@@ -4144,7 +4239,7 @@
       <c r="D3" s="15">
         <v>5</v>
       </c>
-      <c r="E3" s="99" t="s">
+      <c r="E3" s="98" t="s">
         <v>116</v>
       </c>
       <c r="F3" s="18">
@@ -4163,7 +4258,7 @@
       <c r="D4" s="16">
         <v>16</v>
       </c>
-      <c r="E4" s="99"/>
+      <c r="E4" s="98"/>
       <c r="F4" s="17">
         <v>3.3000000000000002E-6</v>
       </c>
@@ -4182,10 +4277,10 @@
         <f>D6+F6/F7</f>
         <v>1.6479885057471264</v>
       </c>
-      <c r="D6" s="100">
+      <c r="D6" s="99">
         <v>0.75</v>
       </c>
-      <c r="E6" s="101" t="s">
+      <c r="E6" s="100" t="s">
         <v>119</v>
       </c>
       <c r="F6" s="22">
@@ -4194,8 +4289,8 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D7" s="100"/>
-      <c r="E7" s="99"/>
+      <c r="D7" s="99"/>
+      <c r="E7" s="98"/>
       <c r="F7" s="23">
         <v>2</v>
       </c>
@@ -4208,30 +4303,30 @@
         <f>SQRT(D9+F9/F10*G9)</f>
         <v>0.91175350405211986</v>
       </c>
-      <c r="D9" s="98">
+      <c r="D9" s="97">
         <f>D6^2</f>
         <v>0.5625</v>
       </c>
-      <c r="E9" s="101" t="s">
+      <c r="E9" s="100" t="s">
         <v>119</v>
       </c>
       <c r="F9" s="21">
         <v>1</v>
       </c>
-      <c r="G9" s="97">
+      <c r="G9" s="96">
         <f>B3^2</f>
         <v>3.2255334258158275</v>
       </c>
-      <c r="H9" s="98"/>
+      <c r="H9" s="97"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D10" s="98"/>
-      <c r="E10" s="99"/>
+      <c r="D10" s="97"/>
+      <c r="E10" s="98"/>
       <c r="F10" s="21">
         <v>12</v>
       </c>
-      <c r="G10" s="98"/>
-      <c r="H10" s="98"/>
+      <c r="G10" s="97"/>
+      <c r="H10" s="97"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/ТЗ.xlsx
+++ b/ТЗ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e8de5e6e04a93b7d/Рабочий стол/Работы/7 семестр/МПС/MPS_Course_Work/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="139" documentId="8_{AE223CD1-AFB2-45CC-9FFC-597FEED66636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{630C20D6-FD05-4D96-BBFF-C14F62056196}"/>
+  <xr:revisionPtr revIDLastSave="152" documentId="8_{AE223CD1-AFB2-45CC-9FFC-597FEED66636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1F80861E-A041-4E4F-9F49-517C012AD576}"/>
   <bookViews>
-    <workbookView xWindow="1380" yWindow="1815" windowWidth="12090" windowHeight="10980" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1785" windowWidth="8070" windowHeight="8880" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Функциональные требования" sheetId="1" r:id="rId1"/>
@@ -20,9 +20,70 @@
     <sheet name="Компоненты" sheetId="4" r:id="rId5"/>
     <sheet name="Кварц" sheetId="5" r:id="rId6"/>
     <sheet name="DC-DC" sheetId="6" r:id="rId7"/>
-    <sheet name="Функциональные объекты" sheetId="7" r:id="rId8"/>
-    <sheet name="Недочеты" sheetId="9" r:id="rId9"/>
+    <sheet name="CAN Timing" sheetId="10" r:id="rId8"/>
+    <sheet name="Функциональные объекты" sheetId="7" r:id="rId9"/>
+    <sheet name="Недочеты" sheetId="9" r:id="rId10"/>
   </sheets>
+  <definedNames>
+    <definedName name="solver_adj" localSheetId="7" hidden="1">'CAN Timing'!$E$10:$H$10</definedName>
+    <definedName name="solver_cvg" localSheetId="7" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="7" hidden="1">2147483647</definedName>
+    <definedName name="solver_lhs0" localSheetId="7" hidden="1">'CAN Timing'!$R$7</definedName>
+    <definedName name="solver_lhs1" localSheetId="7" hidden="1">'CAN Timing'!$E$10:$H$10</definedName>
+    <definedName name="solver_lhs2" localSheetId="7" hidden="1">'CAN Timing'!$F$10</definedName>
+    <definedName name="solver_lhs3" localSheetId="7" hidden="1">'CAN Timing'!$G$10</definedName>
+    <definedName name="solver_lhs4" localSheetId="7" hidden="1">'CAN Timing'!$H$10</definedName>
+    <definedName name="solver_lhs5" localSheetId="7" hidden="1">'CAN Timing'!$H$10</definedName>
+    <definedName name="solver_lhs6" localSheetId="7" hidden="1">'CAN Timing'!$R$10</definedName>
+    <definedName name="solver_lhs7" localSheetId="7" hidden="1">'CAN Timing'!$R$10</definedName>
+    <definedName name="solver_lhs8" localSheetId="7" hidden="1">'CAN Timing'!$S$10</definedName>
+    <definedName name="solver_lhs9" localSheetId="7" hidden="1">'CAN Timing'!$E$10</definedName>
+    <definedName name="solver_lin" localSheetId="7" hidden="1">2</definedName>
+    <definedName name="solver_mip" localSheetId="7" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="7" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="7" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="7" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="7" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="7" hidden="1">9</definedName>
+    <definedName name="solver_nwt" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="7" hidden="1">'CAN Timing'!$Q$10</definedName>
+    <definedName name="solver_pre" localSheetId="7" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_rel0" localSheetId="7" hidden="1">3</definedName>
+    <definedName name="solver_rel1" localSheetId="7" hidden="1">4</definedName>
+    <definedName name="solver_rel2" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_rel3" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_rel4" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_rel5" localSheetId="7" hidden="1">3</definedName>
+    <definedName name="solver_rel6" localSheetId="7" hidden="1">3</definedName>
+    <definedName name="solver_rel7" localSheetId="7" hidden="1">3</definedName>
+    <definedName name="solver_rel8" localSheetId="7" hidden="1">3</definedName>
+    <definedName name="solver_rel9" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_rhs0" localSheetId="7" hidden="1">'CAN Timing'!$S$7</definedName>
+    <definedName name="solver_rhs1" localSheetId="7" hidden="1">"целое"</definedName>
+    <definedName name="solver_rhs2" localSheetId="7" hidden="1">'CAN Timing'!$W$10</definedName>
+    <definedName name="solver_rhs3" localSheetId="7" hidden="1">'CAN Timing'!$X$10</definedName>
+    <definedName name="solver_rhs4" localSheetId="7" hidden="1">'CAN Timing'!$Y$10</definedName>
+    <definedName name="solver_rhs5" localSheetId="7" hidden="1">'CAN Timing'!$Z$10</definedName>
+    <definedName name="solver_rhs6" localSheetId="7" hidden="1">'CAN Timing'!$O$10</definedName>
+    <definedName name="solver_rhs7" localSheetId="7" hidden="1">'CAN Timing'!$S$10</definedName>
+    <definedName name="solver_rhs8" localSheetId="7" hidden="1">'CAN Timing'!$B$5+1</definedName>
+    <definedName name="solver_rhs9" localSheetId="7" hidden="1">'CAN Timing'!$V$10</definedName>
+    <definedName name="solver_rlx" localSheetId="7" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="7" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_sho" localSheetId="7" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="7" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="7" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="7" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="7" hidden="1">2</definedName>
+    <definedName name="solver_val" localSheetId="7" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="7" hidden="1">3</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -41,8 +102,45 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="2">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <futureMetadata name="XLRICHVALUE" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+  <valueMetadata count="1">
+    <bk>
+      <rc t="2" v="0"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="231">
   <si>
     <t>Техническое задание для адаптера J2534</t>
   </si>
@@ -927,6 +1025,105 @@
   <si>
     <t>Проверить выбранную катушку на ток</t>
   </si>
+  <si>
+    <t>Скорость тактирования</t>
+  </si>
+  <si>
+    <t>МГц</t>
+  </si>
+  <si>
+    <t>Sample Point</t>
+  </si>
+  <si>
+    <t>BRP</t>
+  </si>
+  <si>
+    <t>SJW</t>
+  </si>
+  <si>
+    <t>PRSEG</t>
+  </si>
+  <si>
+    <t>SAM</t>
+  </si>
+  <si>
+    <t>BTLMODE</t>
+  </si>
+  <si>
+    <t>PHSEG1</t>
+  </si>
+  <si>
+    <t>PHSEG2</t>
+  </si>
+  <si>
+    <t>SOF</t>
+  </si>
+  <si>
+    <t>WAKFIL</t>
+  </si>
+  <si>
+    <t>Скорость, кГц</t>
+  </si>
+  <si>
+    <t>Результирующие</t>
+  </si>
+  <si>
+    <t>Подбираемые</t>
+  </si>
+  <si>
+    <t>Tq</t>
+  </si>
+  <si>
+    <t>Bit Time</t>
+  </si>
+  <si>
+    <t>Desirable Bit Time</t>
+  </si>
+  <si>
+    <t>Tdelay</t>
+  </si>
+  <si>
+    <t>SyncSeg</t>
+  </si>
+  <si>
+    <t>Func</t>
+  </si>
+  <si>
+    <t>PRSEG MAX</t>
+  </si>
+  <si>
+    <t>BRP MAX</t>
+  </si>
+  <si>
+    <t>PHSEG1 MAX</t>
+  </si>
+  <si>
+    <t>PHSEG2 MAX</t>
+  </si>
+  <si>
+    <t>PHSEG2 MIN</t>
+  </si>
+  <si>
+    <t>PS+PS1</t>
+  </si>
+  <si>
+    <t>PS2</t>
+  </si>
+  <si>
+    <t>Вычисления</t>
+  </si>
+  <si>
+    <t>Плата</t>
+  </si>
+  <si>
+    <t>Код</t>
+  </si>
+  <si>
+    <t>Возвращаемое значение метода isCapableOf должно зависеть не только от интерфейса</t>
+  </si>
+  <si>
+    <t>Класс MCP2515 не разделяет расширенные и стандартные кадры и не может работать с ISO15765</t>
+  </si>
 </sst>
 </file>
 
@@ -987,7 +1184,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1018,6 +1215,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="35">
     <border>
@@ -1464,7 +1673,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -1554,6 +1763,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1688,10 +1919,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -1757,6 +1993,68 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <rv s="0">
+    <v>3</v>
+    <v>8</v>
+    <v>0</v>
+    <v>1</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <s t="_error">
+    <k n="colOffset" t="i"/>
+    <k n="errorType" t="i"/>
+    <k n="rwOffset" t="i"/>
+    <k n="subType" t="i"/>
+  </s>
+</rvStructures>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2035,13 +2333,13 @@
   <sheetData>
     <row r="1" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -2054,361 +2352,361 @@
       <c r="P2" s="4"/>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B3" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="56" t="s">
+      <c r="B3" s="76" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
-      <c r="L3" s="56" t="s">
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="57"/>
-      <c r="N3" s="57"/>
-      <c r="O3" s="57"/>
-      <c r="P3" s="58"/>
+      <c r="M3" s="77"/>
+      <c r="N3" s="77"/>
+      <c r="O3" s="77"/>
+      <c r="P3" s="78"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>1</v>
       </c>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="49"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="69"/>
       <c r="G4" s="1">
         <v>1</v>
       </c>
-      <c r="H4" s="48" t="s">
+      <c r="H4" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="49"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="69"/>
       <c r="L4" s="1">
         <v>1</v>
       </c>
-      <c r="M4" s="50" t="s">
+      <c r="M4" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="N4" s="50"/>
-      <c r="O4" s="50"/>
-      <c r="P4" s="51"/>
+      <c r="N4" s="70"/>
+      <c r="O4" s="70"/>
+      <c r="P4" s="71"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>2</v>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="49"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="69"/>
       <c r="G5" s="1">
         <v>2</v>
       </c>
-      <c r="H5" s="48" t="s">
+      <c r="H5" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="63">
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="69"/>
+      <c r="L5" s="83">
         <v>2</v>
       </c>
-      <c r="M5" s="61" t="s">
+      <c r="M5" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="N5" s="61"/>
-      <c r="O5" s="61"/>
-      <c r="P5" s="62"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="81"/>
+      <c r="P5" s="82"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="49"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="69"/>
       <c r="G6" s="1">
         <v>3</v>
       </c>
-      <c r="H6" s="48" t="s">
+      <c r="H6" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="63"/>
-      <c r="M6" s="61"/>
-      <c r="N6" s="61"/>
-      <c r="O6" s="61"/>
-      <c r="P6" s="62"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="68"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="83"/>
+      <c r="M6" s="81"/>
+      <c r="N6" s="81"/>
+      <c r="O6" s="81"/>
+      <c r="P6" s="82"/>
     </row>
     <row r="7" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="47">
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="67">
         <v>4</v>
       </c>
-      <c r="H7" s="66" t="s">
+      <c r="H7" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="66"/>
-      <c r="J7" s="66"/>
-      <c r="K7" s="67"/>
+      <c r="I7" s="86"/>
+      <c r="J7" s="86"/>
+      <c r="K7" s="87"/>
       <c r="L7" s="1">
         <v>3</v>
       </c>
-      <c r="M7" s="48" t="s">
+      <c r="M7" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="N7" s="48"/>
-      <c r="O7" s="48"/>
-      <c r="P7" s="49"/>
+      <c r="N7" s="68"/>
+      <c r="O7" s="68"/>
+      <c r="P7" s="69"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="66"/>
-      <c r="J8" s="66"/>
-      <c r="K8" s="67"/>
-      <c r="L8" s="63">
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="86"/>
+      <c r="I8" s="86"/>
+      <c r="J8" s="86"/>
+      <c r="K8" s="87"/>
+      <c r="L8" s="83">
         <v>4</v>
       </c>
-      <c r="M8" s="64" t="s">
+      <c r="M8" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="N8" s="64"/>
-      <c r="O8" s="64"/>
-      <c r="P8" s="65"/>
+      <c r="N8" s="84"/>
+      <c r="O8" s="84"/>
+      <c r="P8" s="85"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="49"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="69"/>
       <c r="G9" s="1">
         <v>5</v>
       </c>
-      <c r="H9" s="48" t="s">
+      <c r="H9" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="48"/>
-      <c r="J9" s="48"/>
-      <c r="K9" s="49"/>
-      <c r="L9" s="63"/>
-      <c r="M9" s="64"/>
-      <c r="N9" s="64"/>
-      <c r="O9" s="64"/>
-      <c r="P9" s="65"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="68"/>
+      <c r="K9" s="69"/>
+      <c r="L9" s="83"/>
+      <c r="M9" s="84"/>
+      <c r="N9" s="84"/>
+      <c r="O9" s="84"/>
+      <c r="P9" s="85"/>
     </row>
     <row r="10" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="49"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="69"/>
       <c r="G10" s="1">
         <v>6</v>
       </c>
-      <c r="H10" s="48" t="s">
+      <c r="H10" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="I10" s="48"/>
-      <c r="J10" s="48"/>
-      <c r="K10" s="49"/>
-      <c r="L10" s="63">
+      <c r="I10" s="68"/>
+      <c r="J10" s="68"/>
+      <c r="K10" s="69"/>
+      <c r="L10" s="83">
         <v>5</v>
       </c>
-      <c r="M10" s="64" t="s">
+      <c r="M10" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="N10" s="64"/>
-      <c r="O10" s="64"/>
-      <c r="P10" s="65"/>
+      <c r="N10" s="84"/>
+      <c r="O10" s="84"/>
+      <c r="P10" s="85"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="49"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="69"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="63"/>
-      <c r="M11" s="64"/>
-      <c r="N11" s="64"/>
-      <c r="O11" s="64"/>
-      <c r="P11" s="65"/>
+      <c r="H11" s="68"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="68"/>
+      <c r="K11" s="69"/>
+      <c r="L11" s="83"/>
+      <c r="M11" s="84"/>
+      <c r="N11" s="84"/>
+      <c r="O11" s="84"/>
+      <c r="P11" s="85"/>
     </row>
     <row r="12" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="49"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="69"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="49"/>
-      <c r="L12" s="63">
+      <c r="H12" s="68"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="68"/>
+      <c r="K12" s="69"/>
+      <c r="L12" s="83">
         <v>6</v>
       </c>
-      <c r="M12" s="61" t="s">
+      <c r="M12" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="N12" s="61"/>
-      <c r="O12" s="61"/>
-      <c r="P12" s="62"/>
+      <c r="N12" s="81"/>
+      <c r="O12" s="81"/>
+      <c r="P12" s="82"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="49"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="69"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="49"/>
-      <c r="L13" s="63"/>
-      <c r="M13" s="61"/>
-      <c r="N13" s="61"/>
-      <c r="O13" s="61"/>
-      <c r="P13" s="62"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="68"/>
+      <c r="K13" s="69"/>
+      <c r="L13" s="83"/>
+      <c r="M13" s="81"/>
+      <c r="N13" s="81"/>
+      <c r="O13" s="81"/>
+      <c r="P13" s="82"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="49"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="69"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="63"/>
-      <c r="M14" s="61"/>
-      <c r="N14" s="61"/>
-      <c r="O14" s="61"/>
-      <c r="P14" s="62"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="68"/>
+      <c r="K14" s="69"/>
+      <c r="L14" s="83"/>
+      <c r="M14" s="81"/>
+      <c r="N14" s="81"/>
+      <c r="O14" s="81"/>
+      <c r="P14" s="82"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="49"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="69"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="51"/>
+      <c r="H15" s="70"/>
+      <c r="I15" s="70"/>
+      <c r="J15" s="70"/>
+      <c r="K15" s="71"/>
       <c r="L15" s="1"/>
-      <c r="M15" s="48"/>
-      <c r="N15" s="48"/>
-      <c r="O15" s="48"/>
-      <c r="P15" s="49"/>
+      <c r="M15" s="68"/>
+      <c r="N15" s="68"/>
+      <c r="O15" s="68"/>
+      <c r="P15" s="69"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="49"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="69"/>
       <c r="G16" s="1"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="50"/>
-      <c r="J16" s="50"/>
-      <c r="K16" s="51"/>
+      <c r="H16" s="70"/>
+      <c r="I16" s="70"/>
+      <c r="J16" s="70"/>
+      <c r="K16" s="71"/>
       <c r="L16" s="1"/>
-      <c r="M16" s="48"/>
-      <c r="N16" s="48"/>
-      <c r="O16" s="48"/>
-      <c r="P16" s="49"/>
+      <c r="M16" s="68"/>
+      <c r="N16" s="68"/>
+      <c r="O16" s="68"/>
+      <c r="P16" s="69"/>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="49"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="69"/>
       <c r="G17" s="1"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="50"/>
-      <c r="J17" s="50"/>
-      <c r="K17" s="51"/>
+      <c r="H17" s="70"/>
+      <c r="I17" s="70"/>
+      <c r="J17" s="70"/>
+      <c r="K17" s="71"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="50"/>
-      <c r="N17" s="50"/>
-      <c r="O17" s="50"/>
-      <c r="P17" s="51"/>
+      <c r="M17" s="70"/>
+      <c r="N17" s="70"/>
+      <c r="O17" s="70"/>
+      <c r="P17" s="71"/>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="49"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="69"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="50"/>
-      <c r="J18" s="50"/>
-      <c r="K18" s="51"/>
+      <c r="H18" s="70"/>
+      <c r="I18" s="70"/>
+      <c r="J18" s="70"/>
+      <c r="K18" s="71"/>
       <c r="L18" s="1"/>
-      <c r="M18" s="50"/>
-      <c r="N18" s="50"/>
-      <c r="O18" s="50"/>
-      <c r="P18" s="51"/>
+      <c r="M18" s="70"/>
+      <c r="N18" s="70"/>
+      <c r="O18" s="70"/>
+      <c r="P18" s="71"/>
     </row>
     <row r="19" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="2"/>
-      <c r="C19" s="52"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="52"/>
-      <c r="F19" s="53"/>
+      <c r="C19" s="72"/>
+      <c r="D19" s="72"/>
+      <c r="E19" s="72"/>
+      <c r="F19" s="73"/>
       <c r="G19" s="2"/>
-      <c r="H19" s="54"/>
-      <c r="I19" s="54"/>
-      <c r="J19" s="54"/>
-      <c r="K19" s="55"/>
+      <c r="H19" s="74"/>
+      <c r="I19" s="74"/>
+      <c r="J19" s="74"/>
+      <c r="K19" s="75"/>
       <c r="L19" s="2"/>
-      <c r="M19" s="54"/>
-      <c r="N19" s="54"/>
-      <c r="O19" s="54"/>
-      <c r="P19" s="55"/>
+      <c r="M19" s="74"/>
+      <c r="N19" s="74"/>
+      <c r="O19" s="74"/>
+      <c r="P19" s="75"/>
     </row>
     <row r="20" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="56" t="s">
+      <c r="B21" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="57"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="57"/>
-      <c r="F21" s="58"/>
+      <c r="C21" s="77"/>
+      <c r="D21" s="77"/>
+      <c r="E21" s="77"/>
+      <c r="F21" s="78"/>
       <c r="H21" t="s">
         <v>20</v>
       </c>
@@ -2417,12 +2715,12 @@
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="59" t="s">
+      <c r="C22" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="59"/>
-      <c r="E22" s="59"/>
-      <c r="F22" s="60"/>
+      <c r="D22" s="79"/>
+      <c r="E22" s="79"/>
+      <c r="F22" s="80"/>
       <c r="H22" t="s">
         <v>22</v>
       </c>
@@ -2431,22 +2729,22 @@
       <c r="B23" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="50" t="s">
+      <c r="C23" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="D23" s="50"/>
-      <c r="E23" s="50"/>
-      <c r="F23" s="51"/>
+      <c r="D23" s="70"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="71"/>
       <c r="H23" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
-      <c r="C24" s="50"/>
-      <c r="D24" s="50"/>
-      <c r="E24" s="50"/>
-      <c r="F24" s="51"/>
+      <c r="C24" s="70"/>
+      <c r="D24" s="70"/>
+      <c r="E24" s="70"/>
+      <c r="F24" s="71"/>
       <c r="H24" t="s">
         <v>59</v>
       </c>
@@ -2456,45 +2754,45 @@
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
-      <c r="C25" s="50"/>
-      <c r="D25" s="50"/>
-      <c r="E25" s="50"/>
-      <c r="F25" s="51"/>
+      <c r="C25" s="70"/>
+      <c r="D25" s="70"/>
+      <c r="E25" s="70"/>
+      <c r="F25" s="71"/>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="51"/>
+      <c r="C26" s="70"/>
+      <c r="D26" s="70"/>
+      <c r="E26" s="70"/>
+      <c r="F26" s="71"/>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
-      <c r="C27" s="50"/>
-      <c r="D27" s="50"/>
-      <c r="E27" s="50"/>
-      <c r="F27" s="51"/>
+      <c r="C27" s="70"/>
+      <c r="D27" s="70"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="71"/>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
-      <c r="C28" s="50"/>
-      <c r="D28" s="50"/>
-      <c r="E28" s="50"/>
-      <c r="F28" s="51"/>
+      <c r="C28" s="70"/>
+      <c r="D28" s="70"/>
+      <c r="E28" s="70"/>
+      <c r="F28" s="71"/>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
-      <c r="C29" s="50"/>
-      <c r="D29" s="50"/>
-      <c r="E29" s="50"/>
-      <c r="F29" s="51"/>
+      <c r="C29" s="70"/>
+      <c r="D29" s="70"/>
+      <c r="E29" s="70"/>
+      <c r="F29" s="71"/>
     </row>
     <row r="30" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="2"/>
-      <c r="C30" s="54"/>
-      <c r="D30" s="54"/>
-      <c r="E30" s="54"/>
-      <c r="F30" s="55"/>
+      <c r="C30" s="74"/>
+      <c r="D30" s="74"/>
+      <c r="E30" s="74"/>
+      <c r="F30" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="61">
@@ -2564,6 +2862,79 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5A4E34B-E49C-42D3-AC7B-88258515A7D0}">
+  <dimension ref="B1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>230</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A09C219B-0FC9-408A-A2E3-34F5CACED5E6}">
   <dimension ref="B2:F37"/>
@@ -2940,7 +3311,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1DBCC47-8DF6-4EAE-923D-653C13CC3D25}">
   <dimension ref="A2:E57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -3114,7 +3485,7 @@
       <c r="B20" s="44" t="s">
         <v>149</v>
       </c>
-      <c r="C20" s="102" t="s">
+      <c r="C20" s="44" t="s">
         <v>181</v>
       </c>
     </row>
@@ -3371,7 +3742,7 @@
       <c r="C50" s="44"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="101" t="s">
+      <c r="A51" s="47" t="s">
         <v>188</v>
       </c>
       <c r="B51" s="44" t="s">
@@ -3405,7 +3776,7 @@
       <c r="C54" s="44"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="101" t="s">
+      <c r="A55" s="47" t="s">
         <v>189</v>
       </c>
       <c r="B55" s="44" t="s">
@@ -3454,230 +3825,230 @@
   <sheetData>
     <row r="1" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="91" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="73"/>
-      <c r="H2" s="71" t="s">
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="93"/>
+      <c r="H2" s="91" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="73"/>
-      <c r="N2" s="86" t="s">
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="92"/>
+      <c r="L2" s="93"/>
+      <c r="N2" s="106" t="s">
         <v>52</v>
       </c>
-      <c r="O2" s="87"/>
-      <c r="P2" s="87"/>
-      <c r="Q2" s="87"/>
-      <c r="R2" s="88"/>
+      <c r="O2" s="107"/>
+      <c r="P2" s="107"/>
+      <c r="Q2" s="107"/>
+      <c r="R2" s="108"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B3" s="70">
-        <v>1</v>
-      </c>
-      <c r="C3" s="68" t="s">
+      <c r="B3" s="90">
+        <v>1</v>
+      </c>
+      <c r="C3" s="88" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="69"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="89"/>
       <c r="H3" s="10">
         <v>1</v>
       </c>
-      <c r="I3" s="76" t="s">
+      <c r="I3" s="96" t="s">
         <v>36</v>
       </c>
-      <c r="J3" s="76"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="77"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="97"/>
       <c r="N3" s="10">
         <v>1</v>
       </c>
-      <c r="O3" s="89" t="s">
+      <c r="O3" s="109" t="s">
         <v>53</v>
       </c>
-      <c r="P3" s="90"/>
-      <c r="Q3" s="90"/>
-      <c r="R3" s="91"/>
+      <c r="P3" s="110"/>
+      <c r="Q3" s="110"/>
+      <c r="R3" s="111"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B4" s="70"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="69"/>
+      <c r="B4" s="90"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="89"/>
       <c r="H4" s="10">
         <v>2</v>
       </c>
-      <c r="I4" s="76" t="s">
+      <c r="I4" s="96" t="s">
         <v>37</v>
       </c>
-      <c r="J4" s="76"/>
-      <c r="K4" s="76"/>
-      <c r="L4" s="77"/>
+      <c r="J4" s="96"/>
+      <c r="K4" s="96"/>
+      <c r="L4" s="97"/>
       <c r="N4" s="10">
         <v>2</v>
       </c>
-      <c r="O4" s="89" t="s">
+      <c r="O4" s="109" t="s">
         <v>54</v>
       </c>
-      <c r="P4" s="90"/>
-      <c r="Q4" s="90"/>
-      <c r="R4" s="91"/>
+      <c r="P4" s="110"/>
+      <c r="Q4" s="110"/>
+      <c r="R4" s="111"/>
     </row>
     <row r="5" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="9">
         <v>2</v>
       </c>
-      <c r="C5" s="74" t="s">
+      <c r="C5" s="94" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="75"/>
-      <c r="H5" s="82">
+      <c r="D5" s="94"/>
+      <c r="E5" s="94"/>
+      <c r="F5" s="95"/>
+      <c r="H5" s="102">
         <v>3</v>
       </c>
-      <c r="I5" s="78" t="s">
+      <c r="I5" s="98" t="s">
         <v>38</v>
       </c>
-      <c r="J5" s="78"/>
-      <c r="K5" s="78"/>
-      <c r="L5" s="79"/>
+      <c r="J5" s="98"/>
+      <c r="K5" s="98"/>
+      <c r="L5" s="99"/>
       <c r="N5" s="10">
         <v>3</v>
       </c>
-      <c r="O5" s="89" t="s">
+      <c r="O5" s="109" t="s">
         <v>55</v>
       </c>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="90"/>
-      <c r="R5" s="91"/>
+      <c r="P5" s="110"/>
+      <c r="Q5" s="110"/>
+      <c r="R5" s="111"/>
     </row>
     <row r="6" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H6" s="83"/>
-      <c r="I6" s="80"/>
-      <c r="J6" s="80"/>
-      <c r="K6" s="80"/>
-      <c r="L6" s="81"/>
+      <c r="H6" s="103"/>
+      <c r="I6" s="100"/>
+      <c r="J6" s="100"/>
+      <c r="K6" s="100"/>
+      <c r="L6" s="101"/>
       <c r="N6" s="10">
         <v>4</v>
       </c>
-      <c r="O6" s="89" t="s">
+      <c r="O6" s="109" t="s">
         <v>56</v>
       </c>
-      <c r="P6" s="90"/>
-      <c r="Q6" s="90"/>
-      <c r="R6" s="91"/>
+      <c r="P6" s="110"/>
+      <c r="Q6" s="110"/>
+      <c r="R6" s="111"/>
     </row>
     <row r="7" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="N7" s="10">
         <v>5</v>
       </c>
-      <c r="O7" s="89" t="s">
+      <c r="O7" s="109" t="s">
         <v>57</v>
       </c>
-      <c r="P7" s="90"/>
-      <c r="Q7" s="90"/>
-      <c r="R7" s="91"/>
+      <c r="P7" s="110"/>
+      <c r="Q7" s="110"/>
+      <c r="R7" s="111"/>
     </row>
     <row r="8" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="86" t="s">
+      <c r="B8" s="106" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="87"/>
-      <c r="D8" s="87"/>
-      <c r="E8" s="87"/>
-      <c r="F8" s="88"/>
-      <c r="H8" s="86" t="s">
+      <c r="C8" s="107"/>
+      <c r="D8" s="107"/>
+      <c r="E8" s="107"/>
+      <c r="F8" s="108"/>
+      <c r="H8" s="106" t="s">
         <v>39</v>
       </c>
-      <c r="I8" s="87"/>
-      <c r="J8" s="87"/>
-      <c r="K8" s="87"/>
-      <c r="L8" s="88"/>
+      <c r="I8" s="107"/>
+      <c r="J8" s="107"/>
+      <c r="K8" s="107"/>
+      <c r="L8" s="108"/>
       <c r="N8" s="9">
         <v>6</v>
       </c>
-      <c r="O8" s="92" t="s">
+      <c r="O8" s="112" t="s">
         <v>58</v>
       </c>
-      <c r="P8" s="93"/>
-      <c r="Q8" s="93"/>
-      <c r="R8" s="94"/>
+      <c r="P8" s="113"/>
+      <c r="Q8" s="113"/>
+      <c r="R8" s="114"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" s="10">
         <v>1</v>
       </c>
-      <c r="C9" s="89" t="s">
+      <c r="C9" s="109" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="90"/>
-      <c r="E9" s="90"/>
-      <c r="F9" s="91"/>
+      <c r="D9" s="110"/>
+      <c r="E9" s="110"/>
+      <c r="F9" s="111"/>
       <c r="H9" s="10">
         <v>1</v>
       </c>
-      <c r="I9" s="89" t="s">
+      <c r="I9" s="109" t="s">
         <v>40</v>
       </c>
-      <c r="J9" s="90"/>
-      <c r="K9" s="90"/>
-      <c r="L9" s="91"/>
+      <c r="J9" s="110"/>
+      <c r="K9" s="110"/>
+      <c r="L9" s="111"/>
     </row>
     <row r="10" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="10">
         <v>2</v>
       </c>
-      <c r="C10" s="89" t="s">
+      <c r="C10" s="109" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="90"/>
-      <c r="E10" s="90"/>
-      <c r="F10" s="91"/>
+      <c r="D10" s="110"/>
+      <c r="E10" s="110"/>
+      <c r="F10" s="111"/>
       <c r="H10" s="9">
         <v>2</v>
       </c>
-      <c r="I10" s="92" t="s">
+      <c r="I10" s="112" t="s">
         <v>41</v>
       </c>
-      <c r="J10" s="93"/>
-      <c r="K10" s="93"/>
-      <c r="L10" s="94"/>
+      <c r="J10" s="113"/>
+      <c r="K10" s="113"/>
+      <c r="L10" s="114"/>
     </row>
     <row r="11" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="13">
         <v>3</v>
       </c>
-      <c r="C11" s="84" t="s">
+      <c r="C11" s="104" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="84"/>
-      <c r="E11" s="84"/>
-      <c r="F11" s="85"/>
+      <c r="D11" s="104"/>
+      <c r="E11" s="104"/>
+      <c r="F11" s="105"/>
     </row>
     <row r="12" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B13" s="71" t="s">
+      <c r="B13" s="91" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="72"/>
-      <c r="D13" s="72"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="73"/>
-      <c r="H13" s="71" t="s">
+      <c r="C13" s="92"/>
+      <c r="D13" s="92"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="93"/>
+      <c r="H13" s="91" t="s">
         <v>47</v>
       </c>
-      <c r="I13" s="72"/>
-      <c r="J13" s="72"/>
-      <c r="K13" s="72"/>
-      <c r="L13" s="73"/>
+      <c r="I13" s="92"/>
+      <c r="J13" s="92"/>
+      <c r="K13" s="92"/>
+      <c r="L13" s="93"/>
     </row>
     <row r="14" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="9">
@@ -3692,34 +4063,34 @@
       <c r="H14" s="10">
         <v>1</v>
       </c>
-      <c r="I14" s="89" t="s">
+      <c r="I14" s="109" t="s">
         <v>48</v>
       </c>
-      <c r="J14" s="90"/>
-      <c r="K14" s="90"/>
-      <c r="L14" s="91"/>
+      <c r="J14" s="110"/>
+      <c r="K14" s="110"/>
+      <c r="L14" s="111"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="H15" s="10">
         <v>2</v>
       </c>
-      <c r="I15" s="89" t="s">
+      <c r="I15" s="109" t="s">
         <v>49</v>
       </c>
-      <c r="J15" s="90"/>
-      <c r="K15" s="90"/>
-      <c r="L15" s="91"/>
+      <c r="J15" s="110"/>
+      <c r="K15" s="110"/>
+      <c r="L15" s="111"/>
     </row>
     <row r="16" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H16" s="9">
         <v>3</v>
       </c>
-      <c r="I16" s="92" t="s">
+      <c r="I16" s="112" t="s">
         <v>50</v>
       </c>
-      <c r="J16" s="93"/>
-      <c r="K16" s="93"/>
-      <c r="L16" s="94"/>
+      <c r="J16" s="113"/>
+      <c r="K16" s="113"/>
+      <c r="L16" s="114"/>
     </row>
   </sheetData>
   <mergeCells count="28">
@@ -3771,13 +4142,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="95" t="s">
+      <c r="B2" s="115" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
@@ -4060,26 +4431,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="115" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="95" t="s">
+      <c r="A2" s="115" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="F2" s="95" t="s">
+      <c r="B2" s="115"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="F2" s="115" t="s">
         <v>95</v>
       </c>
-      <c r="G2" s="95"/>
+      <c r="G2" s="115"/>
       <c r="H2" t="s">
         <v>97</v>
       </c>
@@ -4210,8 +4581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83DB2240-1AAB-466B-BC64-B9699C7A01B4}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4239,7 +4610,7 @@
       <c r="D3" s="15">
         <v>5</v>
       </c>
-      <c r="E3" s="98" t="s">
+      <c r="E3" s="118" t="s">
         <v>116</v>
       </c>
       <c r="F3" s="18">
@@ -4258,7 +4629,7 @@
       <c r="D4" s="16">
         <v>16</v>
       </c>
-      <c r="E4" s="98"/>
+      <c r="E4" s="118"/>
       <c r="F4" s="17">
         <v>3.3000000000000002E-6</v>
       </c>
@@ -4275,12 +4646,12 @@
       </c>
       <c r="B6" s="24">
         <f>D6+F6/F7</f>
-        <v>1.6479885057471264</v>
-      </c>
-      <c r="D6" s="99">
-        <v>0.75</v>
-      </c>
-      <c r="E6" s="100" t="s">
+        <v>1.3979885057471264</v>
+      </c>
+      <c r="D6" s="119">
+        <v>0.5</v>
+      </c>
+      <c r="E6" s="120" t="s">
         <v>119</v>
       </c>
       <c r="F6" s="22">
@@ -4289,8 +4660,8 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D7" s="99"/>
-      <c r="E7" s="98"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="118"/>
       <c r="F7" s="23">
         <v>2</v>
       </c>
@@ -4301,32 +4672,32 @@
       </c>
       <c r="B9" s="25">
         <f>SQRT(D9+F9/F10*G9)</f>
-        <v>0.91175350405211986</v>
-      </c>
-      <c r="D9" s="97">
+        <v>0.72027387301728429</v>
+      </c>
+      <c r="D9" s="117">
         <f>D6^2</f>
-        <v>0.5625</v>
-      </c>
-      <c r="E9" s="100" t="s">
+        <v>0.25</v>
+      </c>
+      <c r="E9" s="120" t="s">
         <v>119</v>
       </c>
       <c r="F9" s="21">
         <v>1</v>
       </c>
-      <c r="G9" s="96">
+      <c r="G9" s="116">
         <f>B3^2</f>
         <v>3.2255334258158275</v>
       </c>
-      <c r="H9" s="97"/>
+      <c r="H9" s="117"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D10" s="97"/>
-      <c r="E10" s="98"/>
+      <c r="D10" s="117"/>
+      <c r="E10" s="118"/>
       <c r="F10" s="21">
         <v>12</v>
       </c>
-      <c r="G10" s="97"/>
-      <c r="H10" s="97"/>
+      <c r="G10" s="117"/>
+      <c r="H10" s="117"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -4342,6 +4713,928 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B1FFFD1-45DE-4917-845F-BCB0FDD7339E}">
+  <dimension ref="A2:AN10"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C2">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F2">
+        <f>C2*10^(-9)*2</f>
+        <v>1.6000000000000001E-8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E3" s="121" t="s">
+        <v>212</v>
+      </c>
+      <c r="F3" s="123"/>
+      <c r="G3" s="123"/>
+      <c r="H3" s="122"/>
+      <c r="I3" s="121" t="s">
+        <v>211</v>
+      </c>
+      <c r="J3" s="122"/>
+      <c r="L3" s="115" t="s">
+        <v>226</v>
+      </c>
+      <c r="M3" s="115"/>
+      <c r="N3" s="115"/>
+      <c r="O3" s="115"/>
+      <c r="P3" s="115"/>
+      <c r="Q3" s="115"/>
+      <c r="R3" s="115"/>
+      <c r="S3" s="115"/>
+    </row>
+    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A4" s="49"/>
+      <c r="B4" s="50" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="49" t="s">
+        <v>210</v>
+      </c>
+      <c r="D4" s="50" t="s">
+        <v>200</v>
+      </c>
+      <c r="E4" s="49" t="s">
+        <v>201</v>
+      </c>
+      <c r="F4" s="55" t="s">
+        <v>203</v>
+      </c>
+      <c r="G4" s="55" t="s">
+        <v>206</v>
+      </c>
+      <c r="H4" s="50" t="s">
+        <v>207</v>
+      </c>
+      <c r="I4" s="49" t="s">
+        <v>210</v>
+      </c>
+      <c r="J4" s="50" t="s">
+        <v>200</v>
+      </c>
+      <c r="L4" t="s">
+        <v>213</v>
+      </c>
+      <c r="M4" t="s">
+        <v>215</v>
+      </c>
+      <c r="N4" t="s">
+        <v>214</v>
+      </c>
+      <c r="O4" t="s">
+        <v>216</v>
+      </c>
+      <c r="P4" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>218</v>
+      </c>
+      <c r="R4" t="s">
+        <v>224</v>
+      </c>
+      <c r="S4" t="s">
+        <v>225</v>
+      </c>
+      <c r="V4" t="s">
+        <v>220</v>
+      </c>
+      <c r="W4" t="s">
+        <v>219</v>
+      </c>
+      <c r="X4" t="s">
+        <v>221</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>222</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="B5" s="65">
+        <v>0</v>
+      </c>
+      <c r="C5" s="61">
+        <v>250</v>
+      </c>
+      <c r="D5" s="62">
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="E5" s="56">
+        <v>0</v>
+      </c>
+      <c r="F5" s="48">
+        <v>4</v>
+      </c>
+      <c r="G5" s="48">
+        <v>4</v>
+      </c>
+      <c r="H5" s="57">
+        <v>4</v>
+      </c>
+      <c r="I5" s="51">
+        <f>1/(N5*1000)</f>
+        <v>250</v>
+      </c>
+      <c r="J5" s="52">
+        <f>(F5+G5+P5+2)*L5/N5</f>
+        <v>0.6875</v>
+      </c>
+      <c r="L5">
+        <f>(2 * (1 + E5))/($C$2*10^6)</f>
+        <v>2.4999999999999999E-7</v>
+      </c>
+      <c r="M5">
+        <f>1 / (C5 * 10^3)</f>
+        <v>3.9999999999999998E-6</v>
+      </c>
+      <c r="N5">
+        <f>(SUM(F5:H5) + 3 + P5 ) * L5</f>
+        <v>3.9999999999999998E-6</v>
+      </c>
+      <c r="O5">
+        <v>2</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <f>ABS(D5-J5)^2 + ABS((N5-M5) * 10^6)^2</f>
+        <v>6.2499999999997335E-6</v>
+      </c>
+      <c r="R5">
+        <f>(F5+G5+2)</f>
+        <v>10</v>
+      </c>
+      <c r="S5">
+        <f>H5+1</f>
+        <v>5</v>
+      </c>
+      <c r="V5">
+        <v>63</v>
+      </c>
+      <c r="W5">
+        <v>7</v>
+      </c>
+      <c r="X5">
+        <v>7</v>
+      </c>
+      <c r="Y5">
+        <v>7</v>
+      </c>
+      <c r="Z5">
+        <v>2</v>
+      </c>
+      <c r="AB5" t="e">
+        <f t="shared" ref="AB5:AB9" ca="1" si="0">_xludf.MIN($Q5)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="AC5">
+        <f t="shared" ref="AC5:AC9" si="1">COUNT($E5:$H5)</f>
+        <v>4</v>
+      </c>
+      <c r="AD5" t="e" cm="1" vm="1">
+        <f t="array" aca="1" ref="AD5" ca="1">$E5:$H5=INT($E5:$H5)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AE5" t="b">
+        <f t="shared" ref="AE5:AE9" si="2">$E5&lt;=$V5</f>
+        <v>1</v>
+      </c>
+      <c r="AF5" t="b">
+        <f t="shared" ref="AF5:AF9" si="3">$F5&lt;=$W5</f>
+        <v>1</v>
+      </c>
+      <c r="AG5" t="b">
+        <f t="shared" ref="AG5:AG9" si="4">$G5&lt;=$X5</f>
+        <v>1</v>
+      </c>
+      <c r="AH5" t="b">
+        <f t="shared" ref="AH5:AH9" si="5">$H5&lt;=$Y5</f>
+        <v>1</v>
+      </c>
+      <c r="AI5" t="b">
+        <f t="shared" ref="AI5:AI9" si="6">$H5&gt;=$Z5</f>
+        <v>1</v>
+      </c>
+      <c r="AJ5" t="b">
+        <f t="shared" ref="AJ5:AJ9" si="7">$R5&gt;=$O5</f>
+        <v>1</v>
+      </c>
+      <c r="AK5" t="b">
+        <f t="shared" ref="AK5:AK9" si="8">$R5&gt;=$S5</f>
+        <v>1</v>
+      </c>
+      <c r="AL5" t="b">
+        <f t="shared" ref="AL5:AL9" si="9">$S5&gt;=$B$5+1</f>
+        <v>1</v>
+      </c>
+      <c r="AM5">
+        <f>{32767;32767;0.000001;0.01;FALSE;FALSE;TRUE;1;1;1;0.0001;TRUE}</f>
+        <v>32767</v>
+      </c>
+      <c r="AN5">
+        <f>{0;0;1;100;0;FALSE;TRUE;0.075;0;0;FALSE;30}</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="B6" s="65">
+        <v>0</v>
+      </c>
+      <c r="C6" s="61">
+        <v>250</v>
+      </c>
+      <c r="D6" s="62">
+        <v>0.8</v>
+      </c>
+      <c r="E6" s="56">
+        <v>0</v>
+      </c>
+      <c r="F6" s="48">
+        <v>6</v>
+      </c>
+      <c r="G6" s="48">
+        <v>4</v>
+      </c>
+      <c r="H6" s="57">
+        <v>2</v>
+      </c>
+      <c r="I6" s="51">
+        <f t="shared" ref="I6:I10" si="10">1/(N6*1000)</f>
+        <v>250</v>
+      </c>
+      <c r="J6" s="52">
+        <f t="shared" ref="J6:J10" si="11">(F6+G6+P6+2)*L6/N6</f>
+        <v>0.8125</v>
+      </c>
+      <c r="L6">
+        <f t="shared" ref="L6:L10" si="12">(2 * (1 + E6))/($C$2*10^6)</f>
+        <v>2.4999999999999999E-7</v>
+      </c>
+      <c r="M6">
+        <f t="shared" ref="M6:M10" si="13">1 / (C6 * 10^3)</f>
+        <v>3.9999999999999998E-6</v>
+      </c>
+      <c r="N6">
+        <f t="shared" ref="N6:N10" si="14">(SUM(F6:H6) + 3 + P6 ) * L6</f>
+        <v>3.9999999999999998E-6</v>
+      </c>
+      <c r="O6">
+        <v>2</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" ref="Q6:Q10" si="15">ABS(D6-J6)^2 + ABS((N6-M6) * 10^6)^2</f>
+        <v>1.5624999999999889E-4</v>
+      </c>
+      <c r="R6">
+        <f t="shared" ref="R6:R10" si="16">(F6+G6+2)</f>
+        <v>12</v>
+      </c>
+      <c r="S6">
+        <f t="shared" ref="S6:S10" si="17">H6+1</f>
+        <v>3</v>
+      </c>
+      <c r="V6">
+        <v>63</v>
+      </c>
+      <c r="W6">
+        <v>7</v>
+      </c>
+      <c r="X6">
+        <v>7</v>
+      </c>
+      <c r="Y6">
+        <v>7</v>
+      </c>
+      <c r="Z6">
+        <v>2</v>
+      </c>
+      <c r="AB6" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AC6">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="AD6" t="e" cm="1" vm="1">
+        <f t="array" aca="1" ref="AD6" ca="1">$E6:$H6=INT($E6:$H6)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AE6" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AF6" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AG6" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AH6" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AI6" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AJ6" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AK6" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AL6" t="b">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AM6">
+        <f>{32767;32767;0.000001;0.01;FALSE;FALSE;TRUE;1;1;1;0.0001;TRUE}</f>
+        <v>32767</v>
+      </c>
+      <c r="AN6">
+        <f>{0;0;1;100;0;FALSE;TRUE;0.075;0;0;FALSE;30}</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="B7" s="65">
+        <v>1</v>
+      </c>
+      <c r="C7" s="61">
+        <v>500</v>
+      </c>
+      <c r="D7" s="62">
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="E7" s="56">
+        <v>0</v>
+      </c>
+      <c r="F7" s="48">
+        <v>1</v>
+      </c>
+      <c r="G7" s="48">
+        <v>1</v>
+      </c>
+      <c r="H7" s="57">
+        <v>2</v>
+      </c>
+      <c r="I7" s="51">
+        <f t="shared" si="10"/>
+        <v>500</v>
+      </c>
+      <c r="J7" s="52">
+        <f t="shared" si="11"/>
+        <v>0.625</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="12"/>
+        <v>2.4999999999999999E-7</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="13"/>
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="14"/>
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="O7">
+        <v>2</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="15"/>
+        <v>3.6000000000000064E-3</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="V7">
+        <v>63</v>
+      </c>
+      <c r="W7">
+        <v>7</v>
+      </c>
+      <c r="X7">
+        <v>7</v>
+      </c>
+      <c r="Y7">
+        <v>7</v>
+      </c>
+      <c r="Z7">
+        <v>2</v>
+      </c>
+      <c r="AB7" t="e">
+        <f ca="1">_xludf.MIN($Q7)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="AC7">
+        <f>COUNT($E7:$H7)</f>
+        <v>4</v>
+      </c>
+      <c r="AD7" t="e" cm="1" vm="1">
+        <f t="array" aca="1" ref="AD7" ca="1">$E7:$H7=INT($E7:$H7)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AE7" t="b">
+        <f>$E7&lt;=$V7</f>
+        <v>1</v>
+      </c>
+      <c r="AF7" t="b">
+        <f>$F7&lt;=$W7</f>
+        <v>1</v>
+      </c>
+      <c r="AG7" t="b">
+        <f>$G7&lt;=$X7</f>
+        <v>1</v>
+      </c>
+      <c r="AH7" t="b">
+        <f>$H7&lt;=$Y7</f>
+        <v>1</v>
+      </c>
+      <c r="AI7" t="b">
+        <f>$H7&gt;=$Z7</f>
+        <v>1</v>
+      </c>
+      <c r="AJ7" t="b">
+        <f>$R7&gt;=$O7</f>
+        <v>1</v>
+      </c>
+      <c r="AK7" t="b">
+        <f>$R7&gt;=$S7</f>
+        <v>1</v>
+      </c>
+      <c r="AL7" t="b">
+        <f>$S7&gt;=$B$5+1</f>
+        <v>1</v>
+      </c>
+      <c r="AM7">
+        <f>{32767;32767;0.000001;0.01;FALSE;FALSE;TRUE;1;1;1;0.0001;TRUE}</f>
+        <v>32767</v>
+      </c>
+      <c r="AN7">
+        <f>{0;0;1;100;0;FALSE;TRUE;0.075;0;0;FALSE;30}</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="B8" s="65">
+        <v>0</v>
+      </c>
+      <c r="C8" s="61">
+        <v>500</v>
+      </c>
+      <c r="D8" s="62">
+        <v>0.8</v>
+      </c>
+      <c r="E8" s="56">
+        <v>0</v>
+      </c>
+      <c r="F8" s="48">
+        <v>0</v>
+      </c>
+      <c r="G8" s="48">
+        <v>2</v>
+      </c>
+      <c r="H8" s="57">
+        <v>2</v>
+      </c>
+      <c r="I8" s="51">
+        <f t="shared" si="10"/>
+        <v>500</v>
+      </c>
+      <c r="J8" s="52">
+        <f t="shared" si="11"/>
+        <v>0.625</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="12"/>
+        <v>2.4999999999999999E-7</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="13"/>
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="14"/>
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="O8">
+        <v>2</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="15"/>
+        <v>3.0625000000000017E-2</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="V8">
+        <v>63</v>
+      </c>
+      <c r="W8">
+        <v>7</v>
+      </c>
+      <c r="X8">
+        <v>7</v>
+      </c>
+      <c r="Y8">
+        <v>7</v>
+      </c>
+      <c r="Z8">
+        <v>2</v>
+      </c>
+      <c r="AB8" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AC8">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="AD8" t="e" cm="1" vm="1">
+        <f t="array" aca="1" ref="AD8" ca="1">$E8:$H8=INT($E8:$H8)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AE8" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AF8" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AG8" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AH8" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AI8" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AJ8" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AK8" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AL8" t="b">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AM8">
+        <f>{32767;32767;0.000001;0.01;FALSE;FALSE;TRUE;1;1;1;0.0001;TRUE}</f>
+        <v>32767</v>
+      </c>
+      <c r="AN8">
+        <f>{0;0;1;100;0;FALSE;TRUE;0.075;0;0;FALSE;30}</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="B9" s="66">
+        <v>0</v>
+      </c>
+      <c r="C9" s="61">
+        <v>125</v>
+      </c>
+      <c r="D9" s="62">
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="E9" s="56">
+        <v>1</v>
+      </c>
+      <c r="F9" s="48">
+        <v>1</v>
+      </c>
+      <c r="G9" s="48">
+        <v>6</v>
+      </c>
+      <c r="H9" s="57">
+        <v>5</v>
+      </c>
+      <c r="I9" s="51">
+        <f t="shared" si="10"/>
+        <v>125</v>
+      </c>
+      <c r="J9" s="52">
+        <f t="shared" si="11"/>
+        <v>0.625</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="12"/>
+        <v>4.9999999999999998E-7</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="13"/>
+        <v>7.9999999999999996E-6</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="14"/>
+        <v>7.9999999999999996E-6</v>
+      </c>
+      <c r="O9">
+        <v>2</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="15"/>
+        <v>3.6000000000000064E-3</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="16"/>
+        <v>9</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="17"/>
+        <v>6</v>
+      </c>
+      <c r="V9">
+        <v>63</v>
+      </c>
+      <c r="W9">
+        <v>7</v>
+      </c>
+      <c r="X9">
+        <v>7</v>
+      </c>
+      <c r="Y9">
+        <v>7</v>
+      </c>
+      <c r="Z9">
+        <v>2</v>
+      </c>
+      <c r="AB9" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AC9">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="AD9" t="e" cm="1" vm="1">
+        <f t="array" aca="1" ref="AD9" ca="1">$E9:$H9=INT($E9:$H9)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AE9" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AF9" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AG9" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AH9" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AI9" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AJ9" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AK9" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AL9" t="b">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AM9">
+        <f>{32767;32767;0.000001;0.01;FALSE;FALSE;TRUE;1;1;1;0.0001;TRUE}</f>
+        <v>32767</v>
+      </c>
+      <c r="AN9">
+        <f>{0;0;1;100;0;FALSE;TRUE;0.075;0;0;FALSE;30}</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="63">
+        <v>125</v>
+      </c>
+      <c r="D10" s="64">
+        <v>0.8</v>
+      </c>
+      <c r="E10" s="58">
+        <v>1</v>
+      </c>
+      <c r="F10" s="59">
+        <v>4</v>
+      </c>
+      <c r="G10" s="59">
+        <v>6</v>
+      </c>
+      <c r="H10" s="60">
+        <v>2</v>
+      </c>
+      <c r="I10" s="53">
+        <f t="shared" si="10"/>
+        <v>125</v>
+      </c>
+      <c r="J10" s="54">
+        <f t="shared" si="11"/>
+        <v>0.8125</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="12"/>
+        <v>4.9999999999999998E-7</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="13"/>
+        <v>7.9999999999999996E-6</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="14"/>
+        <v>7.9999999999999996E-6</v>
+      </c>
+      <c r="O10">
+        <v>2</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="15"/>
+        <v>1.5624999999999889E-4</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="16"/>
+        <v>12</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="V10">
+        <v>63</v>
+      </c>
+      <c r="W10">
+        <v>7</v>
+      </c>
+      <c r="X10">
+        <v>7</v>
+      </c>
+      <c r="Y10">
+        <v>7</v>
+      </c>
+      <c r="Z10">
+        <v>2</v>
+      </c>
+      <c r="AB10" t="e">
+        <f ca="1">_xludf.MIN($Q10)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="AC10">
+        <f>COUNT($E10:$H10)</f>
+        <v>4</v>
+      </c>
+      <c r="AD10" t="e" cm="1" vm="1">
+        <f t="array" aca="1" ref="AD10" ca="1">$E10:$H10=INT($E10:$H10)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AE10" t="b">
+        <f>$E10&lt;=$V10</f>
+        <v>1</v>
+      </c>
+      <c r="AF10" t="b">
+        <f>$F10&lt;=$W10</f>
+        <v>1</v>
+      </c>
+      <c r="AG10" t="b">
+        <f>$G10&lt;=$X10</f>
+        <v>1</v>
+      </c>
+      <c r="AH10" t="b">
+        <f>$H10&lt;=$Y10</f>
+        <v>1</v>
+      </c>
+      <c r="AI10" t="b">
+        <f>$H10&gt;=$Z10</f>
+        <v>1</v>
+      </c>
+      <c r="AJ10" t="b">
+        <f>$R10&gt;=$O10</f>
+        <v>1</v>
+      </c>
+      <c r="AK10" t="b">
+        <f>$R10&gt;=$S10</f>
+        <v>1</v>
+      </c>
+      <c r="AL10" t="b">
+        <f>$S10&gt;=$B$5+1</f>
+        <v>1</v>
+      </c>
+      <c r="AM10">
+        <f>{32767;32767;0.000001;0.01;FALSE;FALSE;TRUE;1;1;1;0.0001;TRUE}</f>
+        <v>32767</v>
+      </c>
+      <c r="AN10">
+        <f>{0;0;1;100;0;FALSE;TRUE;0.075;0;0;FALSE;30}</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="L3:S3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{536DEBA0-EA17-41E9-BB81-BBE048F594DA}">
   <dimension ref="B1:D18"/>
   <sheetViews>
@@ -4483,51 +5776,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5A4E34B-E49C-42D3-AC7B-88258515A7D0}">
-  <dimension ref="B2:C5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>197</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>